--- a/data/excel_tables/3.3_vehicles.xlsx
+++ b/data/excel_tables/3.3_vehicles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5754" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6978" uniqueCount="282">
   <si>
     <t>object_type</t>
   </si>
@@ -854,6 +854,12 @@
   </si>
   <si>
     <t>81af01a0-023f-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>1da92b80-02ef-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>a8224490-0380-11ef-bce9-638f8e04ad34</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V323"/>
+  <dimension ref="A1:V391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20070,6 +20076,4018 @@
         <v>279</v>
       </c>
     </row>
+    <row r="324" spans="1:22">
+      <c r="A324" t="s">
+        <v>22</v>
+      </c>
+      <c r="B324" t="s">
+        <v>58</v>
+      </c>
+      <c r="C324">
+        <v>20709</v>
+      </c>
+      <c r="E324" t="s">
+        <v>84</v>
+      </c>
+      <c r="F324" t="s">
+        <v>122</v>
+      </c>
+      <c r="G324" t="s">
+        <v>142</v>
+      </c>
+      <c r="H324" t="s">
+        <v>157</v>
+      </c>
+      <c r="I324" t="s">
+        <v>175</v>
+      </c>
+      <c r="K324" t="s">
+        <v>193</v>
+      </c>
+      <c r="M324" t="s">
+        <v>195</v>
+      </c>
+      <c r="N324" t="s">
+        <v>197</v>
+      </c>
+      <c r="O324" t="s">
+        <v>198</v>
+      </c>
+      <c r="P324" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>213</v>
+      </c>
+      <c r="R324" t="s">
+        <v>230</v>
+      </c>
+      <c r="S324" t="s">
+        <v>237</v>
+      </c>
+      <c r="T324" t="s">
+        <v>175</v>
+      </c>
+      <c r="U324" t="s">
+        <v>230</v>
+      </c>
+      <c r="V324" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="325" spans="1:22">
+      <c r="A325" t="s">
+        <v>22</v>
+      </c>
+      <c r="B325" t="s">
+        <v>58</v>
+      </c>
+      <c r="C325">
+        <v>20709</v>
+      </c>
+      <c r="E325" t="s">
+        <v>84</v>
+      </c>
+      <c r="F325" t="s">
+        <v>122</v>
+      </c>
+      <c r="G325" t="s">
+        <v>142</v>
+      </c>
+      <c r="H325" t="s">
+        <v>157</v>
+      </c>
+      <c r="I325" t="s">
+        <v>175</v>
+      </c>
+      <c r="K325" t="s">
+        <v>193</v>
+      </c>
+      <c r="M325" t="s">
+        <v>195</v>
+      </c>
+      <c r="N325" t="s">
+        <v>197</v>
+      </c>
+      <c r="O325" t="s">
+        <v>198</v>
+      </c>
+      <c r="P325" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>213</v>
+      </c>
+      <c r="R325" t="s">
+        <v>230</v>
+      </c>
+      <c r="S325" t="s">
+        <v>237</v>
+      </c>
+      <c r="T325" t="s">
+        <v>175</v>
+      </c>
+      <c r="U325" t="s">
+        <v>230</v>
+      </c>
+      <c r="V325" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22">
+      <c r="A326" t="s">
+        <v>22</v>
+      </c>
+      <c r="B326" t="s">
+        <v>58</v>
+      </c>
+      <c r="C326">
+        <v>20709</v>
+      </c>
+      <c r="E326" t="s">
+        <v>84</v>
+      </c>
+      <c r="F326" t="s">
+        <v>122</v>
+      </c>
+      <c r="G326" t="s">
+        <v>142</v>
+      </c>
+      <c r="H326" t="s">
+        <v>157</v>
+      </c>
+      <c r="I326" t="s">
+        <v>175</v>
+      </c>
+      <c r="K326" t="s">
+        <v>193</v>
+      </c>
+      <c r="M326" t="s">
+        <v>195</v>
+      </c>
+      <c r="N326" t="s">
+        <v>197</v>
+      </c>
+      <c r="O326" t="s">
+        <v>198</v>
+      </c>
+      <c r="P326" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>213</v>
+      </c>
+      <c r="R326" t="s">
+        <v>230</v>
+      </c>
+      <c r="S326" t="s">
+        <v>237</v>
+      </c>
+      <c r="T326" t="s">
+        <v>175</v>
+      </c>
+      <c r="U326" t="s">
+        <v>230</v>
+      </c>
+      <c r="V326" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22">
+      <c r="A327" t="s">
+        <v>22</v>
+      </c>
+      <c r="B327" t="s">
+        <v>58</v>
+      </c>
+      <c r="C327">
+        <v>20709</v>
+      </c>
+      <c r="E327" t="s">
+        <v>84</v>
+      </c>
+      <c r="F327" t="s">
+        <v>122</v>
+      </c>
+      <c r="G327" t="s">
+        <v>142</v>
+      </c>
+      <c r="H327" t="s">
+        <v>157</v>
+      </c>
+      <c r="I327" t="s">
+        <v>175</v>
+      </c>
+      <c r="K327" t="s">
+        <v>193</v>
+      </c>
+      <c r="M327" t="s">
+        <v>195</v>
+      </c>
+      <c r="N327" t="s">
+        <v>197</v>
+      </c>
+      <c r="O327" t="s">
+        <v>198</v>
+      </c>
+      <c r="P327" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>213</v>
+      </c>
+      <c r="R327" t="s">
+        <v>230</v>
+      </c>
+      <c r="S327" t="s">
+        <v>237</v>
+      </c>
+      <c r="T327" t="s">
+        <v>175</v>
+      </c>
+      <c r="U327" t="s">
+        <v>230</v>
+      </c>
+      <c r="V327" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22">
+      <c r="A328" t="s">
+        <v>22</v>
+      </c>
+      <c r="B328" t="s">
+        <v>38</v>
+      </c>
+      <c r="C328">
+        <v>52600</v>
+      </c>
+      <c r="E328" t="s">
+        <v>86</v>
+      </c>
+      <c r="F328" t="s">
+        <v>123</v>
+      </c>
+      <c r="G328" t="s">
+        <v>144</v>
+      </c>
+      <c r="H328" t="s">
+        <v>157</v>
+      </c>
+      <c r="I328" t="s">
+        <v>175</v>
+      </c>
+      <c r="K328" t="s">
+        <v>193</v>
+      </c>
+      <c r="M328" t="s">
+        <v>195</v>
+      </c>
+      <c r="N328" t="s">
+        <v>197</v>
+      </c>
+      <c r="O328" t="s">
+        <v>198</v>
+      </c>
+      <c r="P328" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>213</v>
+      </c>
+      <c r="R328" t="s">
+        <v>230</v>
+      </c>
+      <c r="S328" t="s">
+        <v>237</v>
+      </c>
+      <c r="T328" t="s">
+        <v>175</v>
+      </c>
+      <c r="U328" t="s">
+        <v>230</v>
+      </c>
+      <c r="V328" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="329" spans="1:22">
+      <c r="A329" t="s">
+        <v>22</v>
+      </c>
+      <c r="B329" t="s">
+        <v>58</v>
+      </c>
+      <c r="C329">
+        <v>20709</v>
+      </c>
+      <c r="E329" t="s">
+        <v>84</v>
+      </c>
+      <c r="F329" t="s">
+        <v>122</v>
+      </c>
+      <c r="G329" t="s">
+        <v>142</v>
+      </c>
+      <c r="H329" t="s">
+        <v>157</v>
+      </c>
+      <c r="I329" t="s">
+        <v>175</v>
+      </c>
+      <c r="K329" t="s">
+        <v>193</v>
+      </c>
+      <c r="M329" t="s">
+        <v>195</v>
+      </c>
+      <c r="N329" t="s">
+        <v>197</v>
+      </c>
+      <c r="O329" t="s">
+        <v>198</v>
+      </c>
+      <c r="P329" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>213</v>
+      </c>
+      <c r="R329" t="s">
+        <v>230</v>
+      </c>
+      <c r="S329" t="s">
+        <v>237</v>
+      </c>
+      <c r="T329" t="s">
+        <v>175</v>
+      </c>
+      <c r="U329" t="s">
+        <v>230</v>
+      </c>
+      <c r="V329" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22">
+      <c r="A330" t="s">
+        <v>22</v>
+      </c>
+      <c r="B330" t="s">
+        <v>58</v>
+      </c>
+      <c r="C330">
+        <v>20709</v>
+      </c>
+      <c r="E330" t="s">
+        <v>84</v>
+      </c>
+      <c r="F330" t="s">
+        <v>122</v>
+      </c>
+      <c r="G330" t="s">
+        <v>142</v>
+      </c>
+      <c r="H330" t="s">
+        <v>157</v>
+      </c>
+      <c r="I330" t="s">
+        <v>175</v>
+      </c>
+      <c r="K330" t="s">
+        <v>193</v>
+      </c>
+      <c r="M330" t="s">
+        <v>195</v>
+      </c>
+      <c r="N330" t="s">
+        <v>197</v>
+      </c>
+      <c r="O330" t="s">
+        <v>198</v>
+      </c>
+      <c r="P330" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>213</v>
+      </c>
+      <c r="R330" t="s">
+        <v>230</v>
+      </c>
+      <c r="S330" t="s">
+        <v>237</v>
+      </c>
+      <c r="T330" t="s">
+        <v>175</v>
+      </c>
+      <c r="U330" t="s">
+        <v>230</v>
+      </c>
+      <c r="V330" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="331" spans="1:22">
+      <c r="A331" t="s">
+        <v>22</v>
+      </c>
+      <c r="B331" t="s">
+        <v>59</v>
+      </c>
+      <c r="C331">
+        <v>27270</v>
+      </c>
+      <c r="E331" t="s">
+        <v>87</v>
+      </c>
+      <c r="F331" t="s">
+        <v>124</v>
+      </c>
+      <c r="G331" t="s">
+        <v>142</v>
+      </c>
+      <c r="H331" t="s">
+        <v>157</v>
+      </c>
+      <c r="I331" t="s">
+        <v>175</v>
+      </c>
+      <c r="K331" t="s">
+        <v>193</v>
+      </c>
+      <c r="M331" t="s">
+        <v>195</v>
+      </c>
+      <c r="N331" t="s">
+        <v>197</v>
+      </c>
+      <c r="O331" t="s">
+        <v>198</v>
+      </c>
+      <c r="P331" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>213</v>
+      </c>
+      <c r="R331" t="s">
+        <v>230</v>
+      </c>
+      <c r="S331" t="s">
+        <v>237</v>
+      </c>
+      <c r="T331" t="s">
+        <v>175</v>
+      </c>
+      <c r="U331" t="s">
+        <v>230</v>
+      </c>
+      <c r="V331" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="332" spans="1:22">
+      <c r="A332" t="s">
+        <v>22</v>
+      </c>
+      <c r="B332" t="s">
+        <v>60</v>
+      </c>
+      <c r="C332">
+        <v>27270</v>
+      </c>
+      <c r="E332" t="s">
+        <v>87</v>
+      </c>
+      <c r="F332" t="s">
+        <v>124</v>
+      </c>
+      <c r="G332" t="s">
+        <v>142</v>
+      </c>
+      <c r="H332" t="s">
+        <v>157</v>
+      </c>
+      <c r="I332" t="s">
+        <v>175</v>
+      </c>
+      <c r="K332" t="s">
+        <v>193</v>
+      </c>
+      <c r="M332" t="s">
+        <v>195</v>
+      </c>
+      <c r="N332" t="s">
+        <v>197</v>
+      </c>
+      <c r="O332" t="s">
+        <v>198</v>
+      </c>
+      <c r="P332" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>213</v>
+      </c>
+      <c r="R332" t="s">
+        <v>230</v>
+      </c>
+      <c r="S332" t="s">
+        <v>237</v>
+      </c>
+      <c r="T332" t="s">
+        <v>175</v>
+      </c>
+      <c r="U332" t="s">
+        <v>230</v>
+      </c>
+      <c r="V332" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="333" spans="1:22">
+      <c r="A333" t="s">
+        <v>22</v>
+      </c>
+      <c r="B333" t="s">
+        <v>58</v>
+      </c>
+      <c r="C333">
+        <v>20709</v>
+      </c>
+      <c r="E333" t="s">
+        <v>84</v>
+      </c>
+      <c r="F333" t="s">
+        <v>122</v>
+      </c>
+      <c r="G333" t="s">
+        <v>142</v>
+      </c>
+      <c r="H333" t="s">
+        <v>157</v>
+      </c>
+      <c r="I333" t="s">
+        <v>175</v>
+      </c>
+      <c r="K333" t="s">
+        <v>193</v>
+      </c>
+      <c r="M333" t="s">
+        <v>195</v>
+      </c>
+      <c r="N333" t="s">
+        <v>197</v>
+      </c>
+      <c r="O333" t="s">
+        <v>198</v>
+      </c>
+      <c r="P333" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>213</v>
+      </c>
+      <c r="R333" t="s">
+        <v>230</v>
+      </c>
+      <c r="S333" t="s">
+        <v>237</v>
+      </c>
+      <c r="T333" t="s">
+        <v>175</v>
+      </c>
+      <c r="U333" t="s">
+        <v>230</v>
+      </c>
+      <c r="V333" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="334" spans="1:22">
+      <c r="A334" t="s">
+        <v>22</v>
+      </c>
+      <c r="B334" t="s">
+        <v>58</v>
+      </c>
+      <c r="C334">
+        <v>20709</v>
+      </c>
+      <c r="E334" t="s">
+        <v>84</v>
+      </c>
+      <c r="F334" t="s">
+        <v>122</v>
+      </c>
+      <c r="G334" t="s">
+        <v>142</v>
+      </c>
+      <c r="H334" t="s">
+        <v>157</v>
+      </c>
+      <c r="I334" t="s">
+        <v>175</v>
+      </c>
+      <c r="K334" t="s">
+        <v>193</v>
+      </c>
+      <c r="M334" t="s">
+        <v>195</v>
+      </c>
+      <c r="N334" t="s">
+        <v>197</v>
+      </c>
+      <c r="O334" t="s">
+        <v>198</v>
+      </c>
+      <c r="P334" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>213</v>
+      </c>
+      <c r="R334" t="s">
+        <v>230</v>
+      </c>
+      <c r="S334" t="s">
+        <v>237</v>
+      </c>
+      <c r="T334" t="s">
+        <v>175</v>
+      </c>
+      <c r="U334" t="s">
+        <v>230</v>
+      </c>
+      <c r="V334" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="335" spans="1:22">
+      <c r="A335" t="s">
+        <v>22</v>
+      </c>
+      <c r="B335" t="s">
+        <v>58</v>
+      </c>
+      <c r="C335">
+        <v>20709</v>
+      </c>
+      <c r="E335" t="s">
+        <v>84</v>
+      </c>
+      <c r="F335" t="s">
+        <v>122</v>
+      </c>
+      <c r="G335" t="s">
+        <v>142</v>
+      </c>
+      <c r="H335" t="s">
+        <v>157</v>
+      </c>
+      <c r="I335" t="s">
+        <v>175</v>
+      </c>
+      <c r="K335" t="s">
+        <v>193</v>
+      </c>
+      <c r="M335" t="s">
+        <v>195</v>
+      </c>
+      <c r="N335" t="s">
+        <v>197</v>
+      </c>
+      <c r="O335" t="s">
+        <v>198</v>
+      </c>
+      <c r="P335" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>213</v>
+      </c>
+      <c r="R335" t="s">
+        <v>230</v>
+      </c>
+      <c r="S335" t="s">
+        <v>237</v>
+      </c>
+      <c r="T335" t="s">
+        <v>175</v>
+      </c>
+      <c r="U335" t="s">
+        <v>230</v>
+      </c>
+      <c r="V335" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="336" spans="1:22">
+      <c r="A336" t="s">
+        <v>22</v>
+      </c>
+      <c r="B336" t="s">
+        <v>58</v>
+      </c>
+      <c r="C336">
+        <v>20709</v>
+      </c>
+      <c r="E336" t="s">
+        <v>84</v>
+      </c>
+      <c r="F336" t="s">
+        <v>122</v>
+      </c>
+      <c r="G336" t="s">
+        <v>142</v>
+      </c>
+      <c r="H336" t="s">
+        <v>157</v>
+      </c>
+      <c r="I336" t="s">
+        <v>175</v>
+      </c>
+      <c r="K336" t="s">
+        <v>193</v>
+      </c>
+      <c r="M336" t="s">
+        <v>195</v>
+      </c>
+      <c r="N336" t="s">
+        <v>197</v>
+      </c>
+      <c r="O336" t="s">
+        <v>198</v>
+      </c>
+      <c r="P336" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>213</v>
+      </c>
+      <c r="R336" t="s">
+        <v>230</v>
+      </c>
+      <c r="S336" t="s">
+        <v>237</v>
+      </c>
+      <c r="T336" t="s">
+        <v>175</v>
+      </c>
+      <c r="U336" t="s">
+        <v>230</v>
+      </c>
+      <c r="V336" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="337" spans="1:22">
+      <c r="A337" t="s">
+        <v>22</v>
+      </c>
+      <c r="B337" t="s">
+        <v>58</v>
+      </c>
+      <c r="C337">
+        <v>20709</v>
+      </c>
+      <c r="E337" t="s">
+        <v>84</v>
+      </c>
+      <c r="F337" t="s">
+        <v>122</v>
+      </c>
+      <c r="G337" t="s">
+        <v>142</v>
+      </c>
+      <c r="H337" t="s">
+        <v>157</v>
+      </c>
+      <c r="I337" t="s">
+        <v>175</v>
+      </c>
+      <c r="K337" t="s">
+        <v>193</v>
+      </c>
+      <c r="M337" t="s">
+        <v>195</v>
+      </c>
+      <c r="N337" t="s">
+        <v>197</v>
+      </c>
+      <c r="O337" t="s">
+        <v>198</v>
+      </c>
+      <c r="P337" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>213</v>
+      </c>
+      <c r="R337" t="s">
+        <v>230</v>
+      </c>
+      <c r="S337" t="s">
+        <v>237</v>
+      </c>
+      <c r="T337" t="s">
+        <v>175</v>
+      </c>
+      <c r="U337" t="s">
+        <v>230</v>
+      </c>
+      <c r="V337" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="338" spans="1:22">
+      <c r="A338" t="s">
+        <v>22</v>
+      </c>
+      <c r="B338" t="s">
+        <v>58</v>
+      </c>
+      <c r="C338">
+        <v>20709</v>
+      </c>
+      <c r="E338" t="s">
+        <v>84</v>
+      </c>
+      <c r="F338" t="s">
+        <v>122</v>
+      </c>
+      <c r="G338" t="s">
+        <v>142</v>
+      </c>
+      <c r="H338" t="s">
+        <v>157</v>
+      </c>
+      <c r="I338" t="s">
+        <v>175</v>
+      </c>
+      <c r="K338" t="s">
+        <v>193</v>
+      </c>
+      <c r="M338" t="s">
+        <v>195</v>
+      </c>
+      <c r="N338" t="s">
+        <v>197</v>
+      </c>
+      <c r="O338" t="s">
+        <v>198</v>
+      </c>
+      <c r="P338" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q338" t="s">
+        <v>213</v>
+      </c>
+      <c r="R338" t="s">
+        <v>230</v>
+      </c>
+      <c r="S338" t="s">
+        <v>237</v>
+      </c>
+      <c r="T338" t="s">
+        <v>175</v>
+      </c>
+      <c r="U338" t="s">
+        <v>230</v>
+      </c>
+      <c r="V338" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="339" spans="1:22">
+      <c r="A339" t="s">
+        <v>22</v>
+      </c>
+      <c r="B339" t="s">
+        <v>60</v>
+      </c>
+      <c r="C339">
+        <v>27270</v>
+      </c>
+      <c r="E339" t="s">
+        <v>87</v>
+      </c>
+      <c r="F339" t="s">
+        <v>124</v>
+      </c>
+      <c r="G339" t="s">
+        <v>142</v>
+      </c>
+      <c r="H339" t="s">
+        <v>157</v>
+      </c>
+      <c r="I339" t="s">
+        <v>175</v>
+      </c>
+      <c r="K339" t="s">
+        <v>193</v>
+      </c>
+      <c r="M339" t="s">
+        <v>195</v>
+      </c>
+      <c r="N339" t="s">
+        <v>197</v>
+      </c>
+      <c r="O339" t="s">
+        <v>198</v>
+      </c>
+      <c r="P339" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>213</v>
+      </c>
+      <c r="R339" t="s">
+        <v>230</v>
+      </c>
+      <c r="S339" t="s">
+        <v>237</v>
+      </c>
+      <c r="T339" t="s">
+        <v>175</v>
+      </c>
+      <c r="U339" t="s">
+        <v>230</v>
+      </c>
+      <c r="V339" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="340" spans="1:22">
+      <c r="A340" t="s">
+        <v>22</v>
+      </c>
+      <c r="B340" t="s">
+        <v>58</v>
+      </c>
+      <c r="C340">
+        <v>20709</v>
+      </c>
+      <c r="E340" t="s">
+        <v>84</v>
+      </c>
+      <c r="F340" t="s">
+        <v>122</v>
+      </c>
+      <c r="G340" t="s">
+        <v>142</v>
+      </c>
+      <c r="H340" t="s">
+        <v>157</v>
+      </c>
+      <c r="I340" t="s">
+        <v>175</v>
+      </c>
+      <c r="K340" t="s">
+        <v>193</v>
+      </c>
+      <c r="M340" t="s">
+        <v>195</v>
+      </c>
+      <c r="N340" t="s">
+        <v>197</v>
+      </c>
+      <c r="O340" t="s">
+        <v>198</v>
+      </c>
+      <c r="P340" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>213</v>
+      </c>
+      <c r="R340" t="s">
+        <v>230</v>
+      </c>
+      <c r="S340" t="s">
+        <v>237</v>
+      </c>
+      <c r="T340" t="s">
+        <v>175</v>
+      </c>
+      <c r="U340" t="s">
+        <v>230</v>
+      </c>
+      <c r="V340" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="341" spans="1:22">
+      <c r="A341" t="s">
+        <v>22</v>
+      </c>
+      <c r="B341" t="s">
+        <v>58</v>
+      </c>
+      <c r="C341">
+        <v>20709</v>
+      </c>
+      <c r="E341" t="s">
+        <v>84</v>
+      </c>
+      <c r="F341" t="s">
+        <v>122</v>
+      </c>
+      <c r="G341" t="s">
+        <v>142</v>
+      </c>
+      <c r="H341" t="s">
+        <v>157</v>
+      </c>
+      <c r="I341" t="s">
+        <v>175</v>
+      </c>
+      <c r="K341" t="s">
+        <v>193</v>
+      </c>
+      <c r="M341" t="s">
+        <v>195</v>
+      </c>
+      <c r="N341" t="s">
+        <v>197</v>
+      </c>
+      <c r="O341" t="s">
+        <v>198</v>
+      </c>
+      <c r="P341" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>213</v>
+      </c>
+      <c r="R341" t="s">
+        <v>230</v>
+      </c>
+      <c r="S341" t="s">
+        <v>237</v>
+      </c>
+      <c r="T341" t="s">
+        <v>175</v>
+      </c>
+      <c r="U341" t="s">
+        <v>230</v>
+      </c>
+      <c r="V341" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="342" spans="1:22">
+      <c r="A342" t="s">
+        <v>22</v>
+      </c>
+      <c r="B342" t="s">
+        <v>58</v>
+      </c>
+      <c r="C342">
+        <v>20709</v>
+      </c>
+      <c r="E342" t="s">
+        <v>84</v>
+      </c>
+      <c r="F342" t="s">
+        <v>122</v>
+      </c>
+      <c r="G342" t="s">
+        <v>142</v>
+      </c>
+      <c r="H342" t="s">
+        <v>157</v>
+      </c>
+      <c r="I342" t="s">
+        <v>175</v>
+      </c>
+      <c r="K342" t="s">
+        <v>193</v>
+      </c>
+      <c r="M342" t="s">
+        <v>195</v>
+      </c>
+      <c r="N342" t="s">
+        <v>197</v>
+      </c>
+      <c r="O342" t="s">
+        <v>198</v>
+      </c>
+      <c r="P342" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>213</v>
+      </c>
+      <c r="R342" t="s">
+        <v>230</v>
+      </c>
+      <c r="S342" t="s">
+        <v>237</v>
+      </c>
+      <c r="T342" t="s">
+        <v>175</v>
+      </c>
+      <c r="U342" t="s">
+        <v>230</v>
+      </c>
+      <c r="V342" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="343" spans="1:22">
+      <c r="A343" t="s">
+        <v>22</v>
+      </c>
+      <c r="B343" t="s">
+        <v>58</v>
+      </c>
+      <c r="C343">
+        <v>20709</v>
+      </c>
+      <c r="E343" t="s">
+        <v>84</v>
+      </c>
+      <c r="F343" t="s">
+        <v>122</v>
+      </c>
+      <c r="G343" t="s">
+        <v>142</v>
+      </c>
+      <c r="H343" t="s">
+        <v>157</v>
+      </c>
+      <c r="I343" t="s">
+        <v>175</v>
+      </c>
+      <c r="K343" t="s">
+        <v>193</v>
+      </c>
+      <c r="M343" t="s">
+        <v>195</v>
+      </c>
+      <c r="N343" t="s">
+        <v>197</v>
+      </c>
+      <c r="O343" t="s">
+        <v>198</v>
+      </c>
+      <c r="P343" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>213</v>
+      </c>
+      <c r="R343" t="s">
+        <v>230</v>
+      </c>
+      <c r="S343" t="s">
+        <v>237</v>
+      </c>
+      <c r="T343" t="s">
+        <v>175</v>
+      </c>
+      <c r="U343" t="s">
+        <v>230</v>
+      </c>
+      <c r="V343" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="344" spans="1:22">
+      <c r="A344" t="s">
+        <v>22</v>
+      </c>
+      <c r="B344" t="s">
+        <v>61</v>
+      </c>
+      <c r="C344">
+        <v>21155</v>
+      </c>
+      <c r="E344" t="s">
+        <v>84</v>
+      </c>
+      <c r="F344" t="s">
+        <v>125</v>
+      </c>
+      <c r="G344" t="s">
+        <v>154</v>
+      </c>
+      <c r="H344" t="s">
+        <v>157</v>
+      </c>
+      <c r="I344" t="s">
+        <v>175</v>
+      </c>
+      <c r="K344" t="s">
+        <v>193</v>
+      </c>
+      <c r="M344" t="s">
+        <v>195</v>
+      </c>
+      <c r="N344" t="s">
+        <v>197</v>
+      </c>
+      <c r="O344" t="s">
+        <v>198</v>
+      </c>
+      <c r="P344" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q344" t="s">
+        <v>213</v>
+      </c>
+      <c r="R344" t="s">
+        <v>230</v>
+      </c>
+      <c r="S344" t="s">
+        <v>237</v>
+      </c>
+      <c r="T344" t="s">
+        <v>175</v>
+      </c>
+      <c r="U344" t="s">
+        <v>230</v>
+      </c>
+      <c r="V344" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="345" spans="1:22">
+      <c r="A345" t="s">
+        <v>22</v>
+      </c>
+      <c r="B345" t="s">
+        <v>58</v>
+      </c>
+      <c r="C345">
+        <v>20709</v>
+      </c>
+      <c r="E345" t="s">
+        <v>84</v>
+      </c>
+      <c r="F345" t="s">
+        <v>122</v>
+      </c>
+      <c r="G345" t="s">
+        <v>142</v>
+      </c>
+      <c r="H345" t="s">
+        <v>157</v>
+      </c>
+      <c r="I345" t="s">
+        <v>175</v>
+      </c>
+      <c r="K345" t="s">
+        <v>193</v>
+      </c>
+      <c r="M345" t="s">
+        <v>195</v>
+      </c>
+      <c r="N345" t="s">
+        <v>197</v>
+      </c>
+      <c r="O345" t="s">
+        <v>198</v>
+      </c>
+      <c r="P345" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>213</v>
+      </c>
+      <c r="R345" t="s">
+        <v>230</v>
+      </c>
+      <c r="S345" t="s">
+        <v>237</v>
+      </c>
+      <c r="T345" t="s">
+        <v>175</v>
+      </c>
+      <c r="U345" t="s">
+        <v>230</v>
+      </c>
+      <c r="V345" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="346" spans="1:22">
+      <c r="A346" t="s">
+        <v>22</v>
+      </c>
+      <c r="B346" t="s">
+        <v>58</v>
+      </c>
+      <c r="C346">
+        <v>20709</v>
+      </c>
+      <c r="E346" t="s">
+        <v>84</v>
+      </c>
+      <c r="F346" t="s">
+        <v>122</v>
+      </c>
+      <c r="G346" t="s">
+        <v>142</v>
+      </c>
+      <c r="H346" t="s">
+        <v>157</v>
+      </c>
+      <c r="I346" t="s">
+        <v>175</v>
+      </c>
+      <c r="K346" t="s">
+        <v>193</v>
+      </c>
+      <c r="M346" t="s">
+        <v>195</v>
+      </c>
+      <c r="N346" t="s">
+        <v>197</v>
+      </c>
+      <c r="O346" t="s">
+        <v>198</v>
+      </c>
+      <c r="P346" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>213</v>
+      </c>
+      <c r="R346" t="s">
+        <v>230</v>
+      </c>
+      <c r="S346" t="s">
+        <v>237</v>
+      </c>
+      <c r="T346" t="s">
+        <v>175</v>
+      </c>
+      <c r="U346" t="s">
+        <v>230</v>
+      </c>
+      <c r="V346" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="347" spans="1:22">
+      <c r="A347" t="s">
+        <v>22</v>
+      </c>
+      <c r="B347" t="s">
+        <v>62</v>
+      </c>
+      <c r="C347">
+        <v>27540</v>
+      </c>
+      <c r="E347" t="s">
+        <v>87</v>
+      </c>
+      <c r="F347" t="s">
+        <v>124</v>
+      </c>
+      <c r="G347" t="s">
+        <v>154</v>
+      </c>
+      <c r="H347" t="s">
+        <v>157</v>
+      </c>
+      <c r="I347" t="s">
+        <v>175</v>
+      </c>
+      <c r="K347" t="s">
+        <v>193</v>
+      </c>
+      <c r="M347" t="s">
+        <v>195</v>
+      </c>
+      <c r="N347" t="s">
+        <v>197</v>
+      </c>
+      <c r="O347" t="s">
+        <v>198</v>
+      </c>
+      <c r="P347" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q347" t="s">
+        <v>213</v>
+      </c>
+      <c r="R347" t="s">
+        <v>230</v>
+      </c>
+      <c r="S347" t="s">
+        <v>237</v>
+      </c>
+      <c r="T347" t="s">
+        <v>175</v>
+      </c>
+      <c r="U347" t="s">
+        <v>230</v>
+      </c>
+      <c r="V347" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="348" spans="1:22">
+      <c r="A348" t="s">
+        <v>22</v>
+      </c>
+      <c r="B348" t="s">
+        <v>58</v>
+      </c>
+      <c r="C348">
+        <v>20709</v>
+      </c>
+      <c r="E348" t="s">
+        <v>84</v>
+      </c>
+      <c r="F348" t="s">
+        <v>122</v>
+      </c>
+      <c r="G348" t="s">
+        <v>142</v>
+      </c>
+      <c r="H348" t="s">
+        <v>157</v>
+      </c>
+      <c r="I348" t="s">
+        <v>175</v>
+      </c>
+      <c r="K348" t="s">
+        <v>193</v>
+      </c>
+      <c r="M348" t="s">
+        <v>195</v>
+      </c>
+      <c r="N348" t="s">
+        <v>197</v>
+      </c>
+      <c r="O348" t="s">
+        <v>198</v>
+      </c>
+      <c r="P348" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>213</v>
+      </c>
+      <c r="R348" t="s">
+        <v>230</v>
+      </c>
+      <c r="S348" t="s">
+        <v>237</v>
+      </c>
+      <c r="T348" t="s">
+        <v>175</v>
+      </c>
+      <c r="U348" t="s">
+        <v>230</v>
+      </c>
+      <c r="V348" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="349" spans="1:22">
+      <c r="A349" t="s">
+        <v>22</v>
+      </c>
+      <c r="B349" t="s">
+        <v>58</v>
+      </c>
+      <c r="C349">
+        <v>20709</v>
+      </c>
+      <c r="E349" t="s">
+        <v>84</v>
+      </c>
+      <c r="F349" t="s">
+        <v>122</v>
+      </c>
+      <c r="G349" t="s">
+        <v>142</v>
+      </c>
+      <c r="H349" t="s">
+        <v>157</v>
+      </c>
+      <c r="I349" t="s">
+        <v>175</v>
+      </c>
+      <c r="K349" t="s">
+        <v>193</v>
+      </c>
+      <c r="M349" t="s">
+        <v>195</v>
+      </c>
+      <c r="N349" t="s">
+        <v>197</v>
+      </c>
+      <c r="O349" t="s">
+        <v>198</v>
+      </c>
+      <c r="P349" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>213</v>
+      </c>
+      <c r="R349" t="s">
+        <v>230</v>
+      </c>
+      <c r="S349" t="s">
+        <v>237</v>
+      </c>
+      <c r="T349" t="s">
+        <v>175</v>
+      </c>
+      <c r="U349" t="s">
+        <v>230</v>
+      </c>
+      <c r="V349" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="350" spans="1:22">
+      <c r="A350" t="s">
+        <v>22</v>
+      </c>
+      <c r="B350" t="s">
+        <v>58</v>
+      </c>
+      <c r="C350">
+        <v>20709</v>
+      </c>
+      <c r="E350" t="s">
+        <v>84</v>
+      </c>
+      <c r="F350" t="s">
+        <v>122</v>
+      </c>
+      <c r="G350" t="s">
+        <v>142</v>
+      </c>
+      <c r="H350" t="s">
+        <v>157</v>
+      </c>
+      <c r="I350" t="s">
+        <v>175</v>
+      </c>
+      <c r="K350" t="s">
+        <v>193</v>
+      </c>
+      <c r="M350" t="s">
+        <v>195</v>
+      </c>
+      <c r="N350" t="s">
+        <v>197</v>
+      </c>
+      <c r="O350" t="s">
+        <v>198</v>
+      </c>
+      <c r="P350" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>213</v>
+      </c>
+      <c r="R350" t="s">
+        <v>230</v>
+      </c>
+      <c r="S350" t="s">
+        <v>237</v>
+      </c>
+      <c r="T350" t="s">
+        <v>175</v>
+      </c>
+      <c r="U350" t="s">
+        <v>230</v>
+      </c>
+      <c r="V350" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="351" spans="1:22">
+      <c r="A351" t="s">
+        <v>22</v>
+      </c>
+      <c r="B351" t="s">
+        <v>58</v>
+      </c>
+      <c r="C351">
+        <v>20709</v>
+      </c>
+      <c r="E351" t="s">
+        <v>84</v>
+      </c>
+      <c r="F351" t="s">
+        <v>122</v>
+      </c>
+      <c r="G351" t="s">
+        <v>142</v>
+      </c>
+      <c r="H351" t="s">
+        <v>157</v>
+      </c>
+      <c r="I351" t="s">
+        <v>175</v>
+      </c>
+      <c r="K351" t="s">
+        <v>193</v>
+      </c>
+      <c r="M351" t="s">
+        <v>195</v>
+      </c>
+      <c r="N351" t="s">
+        <v>197</v>
+      </c>
+      <c r="O351" t="s">
+        <v>198</v>
+      </c>
+      <c r="P351" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q351" t="s">
+        <v>213</v>
+      </c>
+      <c r="R351" t="s">
+        <v>230</v>
+      </c>
+      <c r="S351" t="s">
+        <v>237</v>
+      </c>
+      <c r="T351" t="s">
+        <v>175</v>
+      </c>
+      <c r="U351" t="s">
+        <v>230</v>
+      </c>
+      <c r="V351" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="352" spans="1:22">
+      <c r="A352" t="s">
+        <v>22</v>
+      </c>
+      <c r="B352" t="s">
+        <v>58</v>
+      </c>
+      <c r="C352">
+        <v>20709</v>
+      </c>
+      <c r="E352" t="s">
+        <v>84</v>
+      </c>
+      <c r="F352" t="s">
+        <v>122</v>
+      </c>
+      <c r="G352" t="s">
+        <v>142</v>
+      </c>
+      <c r="H352" t="s">
+        <v>157</v>
+      </c>
+      <c r="I352" t="s">
+        <v>175</v>
+      </c>
+      <c r="K352" t="s">
+        <v>193</v>
+      </c>
+      <c r="M352" t="s">
+        <v>195</v>
+      </c>
+      <c r="N352" t="s">
+        <v>197</v>
+      </c>
+      <c r="O352" t="s">
+        <v>198</v>
+      </c>
+      <c r="P352" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q352" t="s">
+        <v>213</v>
+      </c>
+      <c r="R352" t="s">
+        <v>230</v>
+      </c>
+      <c r="S352" t="s">
+        <v>237</v>
+      </c>
+      <c r="T352" t="s">
+        <v>175</v>
+      </c>
+      <c r="U352" t="s">
+        <v>230</v>
+      </c>
+      <c r="V352" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="353" spans="1:22">
+      <c r="A353" t="s">
+        <v>22</v>
+      </c>
+      <c r="B353" t="s">
+        <v>58</v>
+      </c>
+      <c r="C353">
+        <v>20709</v>
+      </c>
+      <c r="E353" t="s">
+        <v>84</v>
+      </c>
+      <c r="F353" t="s">
+        <v>122</v>
+      </c>
+      <c r="G353" t="s">
+        <v>142</v>
+      </c>
+      <c r="H353" t="s">
+        <v>157</v>
+      </c>
+      <c r="I353" t="s">
+        <v>175</v>
+      </c>
+      <c r="K353" t="s">
+        <v>193</v>
+      </c>
+      <c r="M353" t="s">
+        <v>195</v>
+      </c>
+      <c r="N353" t="s">
+        <v>197</v>
+      </c>
+      <c r="O353" t="s">
+        <v>198</v>
+      </c>
+      <c r="P353" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>213</v>
+      </c>
+      <c r="R353" t="s">
+        <v>230</v>
+      </c>
+      <c r="S353" t="s">
+        <v>237</v>
+      </c>
+      <c r="T353" t="s">
+        <v>175</v>
+      </c>
+      <c r="U353" t="s">
+        <v>230</v>
+      </c>
+      <c r="V353" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="354" spans="1:22">
+      <c r="A354" t="s">
+        <v>22</v>
+      </c>
+      <c r="B354" t="s">
+        <v>63</v>
+      </c>
+      <c r="C354">
+        <v>49075</v>
+      </c>
+      <c r="E354" t="s">
+        <v>86</v>
+      </c>
+      <c r="F354" t="s">
+        <v>126</v>
+      </c>
+      <c r="G354" t="s">
+        <v>154</v>
+      </c>
+      <c r="H354" t="s">
+        <v>157</v>
+      </c>
+      <c r="I354" t="s">
+        <v>175</v>
+      </c>
+      <c r="K354" t="s">
+        <v>193</v>
+      </c>
+      <c r="M354" t="s">
+        <v>195</v>
+      </c>
+      <c r="N354" t="s">
+        <v>197</v>
+      </c>
+      <c r="O354" t="s">
+        <v>198</v>
+      </c>
+      <c r="P354" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q354" t="s">
+        <v>213</v>
+      </c>
+      <c r="R354" t="s">
+        <v>230</v>
+      </c>
+      <c r="S354" t="s">
+        <v>237</v>
+      </c>
+      <c r="T354" t="s">
+        <v>175</v>
+      </c>
+      <c r="U354" t="s">
+        <v>230</v>
+      </c>
+      <c r="V354" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="355" spans="1:22">
+      <c r="A355" t="s">
+        <v>22</v>
+      </c>
+      <c r="B355" t="s">
+        <v>64</v>
+      </c>
+      <c r="C355">
+        <v>29185</v>
+      </c>
+      <c r="E355" t="s">
+        <v>87</v>
+      </c>
+      <c r="F355" t="s">
+        <v>124</v>
+      </c>
+      <c r="G355" t="s">
+        <v>142</v>
+      </c>
+      <c r="H355" t="s">
+        <v>157</v>
+      </c>
+      <c r="I355" t="s">
+        <v>175</v>
+      </c>
+      <c r="K355" t="s">
+        <v>193</v>
+      </c>
+      <c r="M355" t="s">
+        <v>195</v>
+      </c>
+      <c r="N355" t="s">
+        <v>197</v>
+      </c>
+      <c r="O355" t="s">
+        <v>198</v>
+      </c>
+      <c r="P355" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q355" t="s">
+        <v>213</v>
+      </c>
+      <c r="R355" t="s">
+        <v>230</v>
+      </c>
+      <c r="S355" t="s">
+        <v>237</v>
+      </c>
+      <c r="T355" t="s">
+        <v>175</v>
+      </c>
+      <c r="U355" t="s">
+        <v>230</v>
+      </c>
+      <c r="V355" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="356" spans="1:22">
+      <c r="A356" t="s">
+        <v>22</v>
+      </c>
+      <c r="B356" t="s">
+        <v>58</v>
+      </c>
+      <c r="C356">
+        <v>20709</v>
+      </c>
+      <c r="E356" t="s">
+        <v>84</v>
+      </c>
+      <c r="F356" t="s">
+        <v>122</v>
+      </c>
+      <c r="G356" t="s">
+        <v>142</v>
+      </c>
+      <c r="H356" t="s">
+        <v>157</v>
+      </c>
+      <c r="I356" t="s">
+        <v>175</v>
+      </c>
+      <c r="K356" t="s">
+        <v>193</v>
+      </c>
+      <c r="M356" t="s">
+        <v>195</v>
+      </c>
+      <c r="N356" t="s">
+        <v>197</v>
+      </c>
+      <c r="O356" t="s">
+        <v>198</v>
+      </c>
+      <c r="P356" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>213</v>
+      </c>
+      <c r="R356" t="s">
+        <v>230</v>
+      </c>
+      <c r="S356" t="s">
+        <v>237</v>
+      </c>
+      <c r="T356" t="s">
+        <v>175</v>
+      </c>
+      <c r="U356" t="s">
+        <v>230</v>
+      </c>
+      <c r="V356" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="357" spans="1:22">
+      <c r="A357" t="s">
+        <v>22</v>
+      </c>
+      <c r="B357" t="s">
+        <v>58</v>
+      </c>
+      <c r="C357">
+        <v>20709</v>
+      </c>
+      <c r="E357" t="s">
+        <v>84</v>
+      </c>
+      <c r="F357" t="s">
+        <v>122</v>
+      </c>
+      <c r="G357" t="s">
+        <v>142</v>
+      </c>
+      <c r="H357" t="s">
+        <v>157</v>
+      </c>
+      <c r="I357" t="s">
+        <v>175</v>
+      </c>
+      <c r="K357" t="s">
+        <v>193</v>
+      </c>
+      <c r="M357" t="s">
+        <v>195</v>
+      </c>
+      <c r="N357" t="s">
+        <v>197</v>
+      </c>
+      <c r="O357" t="s">
+        <v>198</v>
+      </c>
+      <c r="P357" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q357" t="s">
+        <v>213</v>
+      </c>
+      <c r="R357" t="s">
+        <v>230</v>
+      </c>
+      <c r="S357" t="s">
+        <v>237</v>
+      </c>
+      <c r="T357" t="s">
+        <v>175</v>
+      </c>
+      <c r="U357" t="s">
+        <v>230</v>
+      </c>
+      <c r="V357" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="358" spans="1:22">
+      <c r="A358" t="s">
+        <v>22</v>
+      </c>
+      <c r="B358" t="s">
+        <v>58</v>
+      </c>
+      <c r="C358">
+        <v>20709</v>
+      </c>
+      <c r="E358" t="s">
+        <v>84</v>
+      </c>
+      <c r="F358" t="s">
+        <v>122</v>
+      </c>
+      <c r="G358" t="s">
+        <v>142</v>
+      </c>
+      <c r="H358" t="s">
+        <v>157</v>
+      </c>
+      <c r="I358" t="s">
+        <v>175</v>
+      </c>
+      <c r="K358" t="s">
+        <v>193</v>
+      </c>
+      <c r="M358" t="s">
+        <v>195</v>
+      </c>
+      <c r="N358" t="s">
+        <v>197</v>
+      </c>
+      <c r="O358" t="s">
+        <v>198</v>
+      </c>
+      <c r="P358" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q358" t="s">
+        <v>213</v>
+      </c>
+      <c r="R358" t="s">
+        <v>230</v>
+      </c>
+      <c r="S358" t="s">
+        <v>237</v>
+      </c>
+      <c r="T358" t="s">
+        <v>175</v>
+      </c>
+      <c r="U358" t="s">
+        <v>230</v>
+      </c>
+      <c r="V358" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="359" spans="1:22">
+      <c r="A359" t="s">
+        <v>22</v>
+      </c>
+      <c r="B359" t="s">
+        <v>58</v>
+      </c>
+      <c r="C359">
+        <v>20709</v>
+      </c>
+      <c r="E359" t="s">
+        <v>84</v>
+      </c>
+      <c r="F359" t="s">
+        <v>122</v>
+      </c>
+      <c r="G359" t="s">
+        <v>142</v>
+      </c>
+      <c r="H359" t="s">
+        <v>157</v>
+      </c>
+      <c r="I359" t="s">
+        <v>175</v>
+      </c>
+      <c r="K359" t="s">
+        <v>193</v>
+      </c>
+      <c r="M359" t="s">
+        <v>195</v>
+      </c>
+      <c r="N359" t="s">
+        <v>197</v>
+      </c>
+      <c r="O359" t="s">
+        <v>198</v>
+      </c>
+      <c r="P359" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q359" t="s">
+        <v>213</v>
+      </c>
+      <c r="R359" t="s">
+        <v>230</v>
+      </c>
+      <c r="S359" t="s">
+        <v>237</v>
+      </c>
+      <c r="T359" t="s">
+        <v>175</v>
+      </c>
+      <c r="U359" t="s">
+        <v>230</v>
+      </c>
+      <c r="V359" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="360" spans="1:22">
+      <c r="A360" t="s">
+        <v>22</v>
+      </c>
+      <c r="B360" t="s">
+        <v>58</v>
+      </c>
+      <c r="C360">
+        <v>20709</v>
+      </c>
+      <c r="E360" t="s">
+        <v>84</v>
+      </c>
+      <c r="F360" t="s">
+        <v>122</v>
+      </c>
+      <c r="G360" t="s">
+        <v>142</v>
+      </c>
+      <c r="H360" t="s">
+        <v>157</v>
+      </c>
+      <c r="I360" t="s">
+        <v>175</v>
+      </c>
+      <c r="K360" t="s">
+        <v>193</v>
+      </c>
+      <c r="M360" t="s">
+        <v>195</v>
+      </c>
+      <c r="N360" t="s">
+        <v>197</v>
+      </c>
+      <c r="O360" t="s">
+        <v>198</v>
+      </c>
+      <c r="P360" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q360" t="s">
+        <v>213</v>
+      </c>
+      <c r="R360" t="s">
+        <v>230</v>
+      </c>
+      <c r="S360" t="s">
+        <v>237</v>
+      </c>
+      <c r="T360" t="s">
+        <v>175</v>
+      </c>
+      <c r="U360" t="s">
+        <v>230</v>
+      </c>
+      <c r="V360" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="361" spans="1:22">
+      <c r="A361" t="s">
+        <v>22</v>
+      </c>
+      <c r="B361" t="s">
+        <v>58</v>
+      </c>
+      <c r="C361">
+        <v>20709</v>
+      </c>
+      <c r="E361" t="s">
+        <v>84</v>
+      </c>
+      <c r="F361" t="s">
+        <v>122</v>
+      </c>
+      <c r="G361" t="s">
+        <v>142</v>
+      </c>
+      <c r="H361" t="s">
+        <v>157</v>
+      </c>
+      <c r="I361" t="s">
+        <v>175</v>
+      </c>
+      <c r="K361" t="s">
+        <v>193</v>
+      </c>
+      <c r="M361" t="s">
+        <v>195</v>
+      </c>
+      <c r="N361" t="s">
+        <v>197</v>
+      </c>
+      <c r="O361" t="s">
+        <v>198</v>
+      </c>
+      <c r="P361" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>213</v>
+      </c>
+      <c r="R361" t="s">
+        <v>230</v>
+      </c>
+      <c r="S361" t="s">
+        <v>237</v>
+      </c>
+      <c r="T361" t="s">
+        <v>175</v>
+      </c>
+      <c r="U361" t="s">
+        <v>230</v>
+      </c>
+      <c r="V361" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="362" spans="1:22">
+      <c r="A362" t="s">
+        <v>22</v>
+      </c>
+      <c r="B362" t="s">
+        <v>38</v>
+      </c>
+      <c r="C362">
+        <v>52600</v>
+      </c>
+      <c r="E362" t="s">
+        <v>86</v>
+      </c>
+      <c r="F362" t="s">
+        <v>123</v>
+      </c>
+      <c r="G362" t="s">
+        <v>144</v>
+      </c>
+      <c r="H362" t="s">
+        <v>157</v>
+      </c>
+      <c r="I362" t="s">
+        <v>175</v>
+      </c>
+      <c r="K362" t="s">
+        <v>193</v>
+      </c>
+      <c r="M362" t="s">
+        <v>195</v>
+      </c>
+      <c r="N362" t="s">
+        <v>197</v>
+      </c>
+      <c r="O362" t="s">
+        <v>198</v>
+      </c>
+      <c r="P362" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q362" t="s">
+        <v>213</v>
+      </c>
+      <c r="R362" t="s">
+        <v>230</v>
+      </c>
+      <c r="S362" t="s">
+        <v>237</v>
+      </c>
+      <c r="T362" t="s">
+        <v>175</v>
+      </c>
+      <c r="U362" t="s">
+        <v>230</v>
+      </c>
+      <c r="V362" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="363" spans="1:22">
+      <c r="A363" t="s">
+        <v>22</v>
+      </c>
+      <c r="B363" t="s">
+        <v>58</v>
+      </c>
+      <c r="C363">
+        <v>20709</v>
+      </c>
+      <c r="E363" t="s">
+        <v>84</v>
+      </c>
+      <c r="F363" t="s">
+        <v>122</v>
+      </c>
+      <c r="G363" t="s">
+        <v>142</v>
+      </c>
+      <c r="H363" t="s">
+        <v>157</v>
+      </c>
+      <c r="I363" t="s">
+        <v>175</v>
+      </c>
+      <c r="K363" t="s">
+        <v>193</v>
+      </c>
+      <c r="M363" t="s">
+        <v>195</v>
+      </c>
+      <c r="N363" t="s">
+        <v>197</v>
+      </c>
+      <c r="O363" t="s">
+        <v>198</v>
+      </c>
+      <c r="P363" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q363" t="s">
+        <v>213</v>
+      </c>
+      <c r="R363" t="s">
+        <v>230</v>
+      </c>
+      <c r="S363" t="s">
+        <v>237</v>
+      </c>
+      <c r="T363" t="s">
+        <v>175</v>
+      </c>
+      <c r="U363" t="s">
+        <v>230</v>
+      </c>
+      <c r="V363" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="364" spans="1:22">
+      <c r="A364" t="s">
+        <v>22</v>
+      </c>
+      <c r="B364" t="s">
+        <v>58</v>
+      </c>
+      <c r="C364">
+        <v>20709</v>
+      </c>
+      <c r="E364" t="s">
+        <v>84</v>
+      </c>
+      <c r="F364" t="s">
+        <v>122</v>
+      </c>
+      <c r="G364" t="s">
+        <v>142</v>
+      </c>
+      <c r="H364" t="s">
+        <v>157</v>
+      </c>
+      <c r="I364" t="s">
+        <v>175</v>
+      </c>
+      <c r="K364" t="s">
+        <v>193</v>
+      </c>
+      <c r="M364" t="s">
+        <v>195</v>
+      </c>
+      <c r="N364" t="s">
+        <v>197</v>
+      </c>
+      <c r="O364" t="s">
+        <v>198</v>
+      </c>
+      <c r="P364" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>213</v>
+      </c>
+      <c r="R364" t="s">
+        <v>230</v>
+      </c>
+      <c r="S364" t="s">
+        <v>237</v>
+      </c>
+      <c r="T364" t="s">
+        <v>175</v>
+      </c>
+      <c r="U364" t="s">
+        <v>230</v>
+      </c>
+      <c r="V364" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="365" spans="1:22">
+      <c r="A365" t="s">
+        <v>22</v>
+      </c>
+      <c r="B365" t="s">
+        <v>59</v>
+      </c>
+      <c r="C365">
+        <v>27270</v>
+      </c>
+      <c r="E365" t="s">
+        <v>87</v>
+      </c>
+      <c r="F365" t="s">
+        <v>124</v>
+      </c>
+      <c r="G365" t="s">
+        <v>142</v>
+      </c>
+      <c r="H365" t="s">
+        <v>157</v>
+      </c>
+      <c r="I365" t="s">
+        <v>175</v>
+      </c>
+      <c r="K365" t="s">
+        <v>193</v>
+      </c>
+      <c r="M365" t="s">
+        <v>195</v>
+      </c>
+      <c r="N365" t="s">
+        <v>197</v>
+      </c>
+      <c r="O365" t="s">
+        <v>198</v>
+      </c>
+      <c r="P365" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q365" t="s">
+        <v>213</v>
+      </c>
+      <c r="R365" t="s">
+        <v>230</v>
+      </c>
+      <c r="S365" t="s">
+        <v>237</v>
+      </c>
+      <c r="T365" t="s">
+        <v>175</v>
+      </c>
+      <c r="U365" t="s">
+        <v>230</v>
+      </c>
+      <c r="V365" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="366" spans="1:22">
+      <c r="A366" t="s">
+        <v>22</v>
+      </c>
+      <c r="B366" t="s">
+        <v>60</v>
+      </c>
+      <c r="C366">
+        <v>27270</v>
+      </c>
+      <c r="E366" t="s">
+        <v>87</v>
+      </c>
+      <c r="F366" t="s">
+        <v>124</v>
+      </c>
+      <c r="G366" t="s">
+        <v>142</v>
+      </c>
+      <c r="H366" t="s">
+        <v>157</v>
+      </c>
+      <c r="I366" t="s">
+        <v>175</v>
+      </c>
+      <c r="K366" t="s">
+        <v>193</v>
+      </c>
+      <c r="M366" t="s">
+        <v>195</v>
+      </c>
+      <c r="N366" t="s">
+        <v>197</v>
+      </c>
+      <c r="O366" t="s">
+        <v>198</v>
+      </c>
+      <c r="P366" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>213</v>
+      </c>
+      <c r="R366" t="s">
+        <v>230</v>
+      </c>
+      <c r="S366" t="s">
+        <v>237</v>
+      </c>
+      <c r="T366" t="s">
+        <v>175</v>
+      </c>
+      <c r="U366" t="s">
+        <v>230</v>
+      </c>
+      <c r="V366" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="367" spans="1:22">
+      <c r="A367" t="s">
+        <v>22</v>
+      </c>
+      <c r="B367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C367">
+        <v>20709</v>
+      </c>
+      <c r="E367" t="s">
+        <v>84</v>
+      </c>
+      <c r="F367" t="s">
+        <v>122</v>
+      </c>
+      <c r="G367" t="s">
+        <v>142</v>
+      </c>
+      <c r="H367" t="s">
+        <v>157</v>
+      </c>
+      <c r="I367" t="s">
+        <v>175</v>
+      </c>
+      <c r="K367" t="s">
+        <v>193</v>
+      </c>
+      <c r="M367" t="s">
+        <v>195</v>
+      </c>
+      <c r="N367" t="s">
+        <v>197</v>
+      </c>
+      <c r="O367" t="s">
+        <v>198</v>
+      </c>
+      <c r="P367" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>213</v>
+      </c>
+      <c r="R367" t="s">
+        <v>230</v>
+      </c>
+      <c r="S367" t="s">
+        <v>237</v>
+      </c>
+      <c r="T367" t="s">
+        <v>175</v>
+      </c>
+      <c r="U367" t="s">
+        <v>230</v>
+      </c>
+      <c r="V367" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="368" spans="1:22">
+      <c r="A368" t="s">
+        <v>22</v>
+      </c>
+      <c r="B368" t="s">
+        <v>58</v>
+      </c>
+      <c r="C368">
+        <v>20709</v>
+      </c>
+      <c r="E368" t="s">
+        <v>84</v>
+      </c>
+      <c r="F368" t="s">
+        <v>122</v>
+      </c>
+      <c r="G368" t="s">
+        <v>142</v>
+      </c>
+      <c r="H368" t="s">
+        <v>157</v>
+      </c>
+      <c r="I368" t="s">
+        <v>175</v>
+      </c>
+      <c r="K368" t="s">
+        <v>193</v>
+      </c>
+      <c r="M368" t="s">
+        <v>195</v>
+      </c>
+      <c r="N368" t="s">
+        <v>197</v>
+      </c>
+      <c r="O368" t="s">
+        <v>198</v>
+      </c>
+      <c r="P368" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q368" t="s">
+        <v>213</v>
+      </c>
+      <c r="R368" t="s">
+        <v>230</v>
+      </c>
+      <c r="S368" t="s">
+        <v>237</v>
+      </c>
+      <c r="T368" t="s">
+        <v>175</v>
+      </c>
+      <c r="U368" t="s">
+        <v>230</v>
+      </c>
+      <c r="V368" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="369" spans="1:22">
+      <c r="A369" t="s">
+        <v>22</v>
+      </c>
+      <c r="B369" t="s">
+        <v>58</v>
+      </c>
+      <c r="C369">
+        <v>20709</v>
+      </c>
+      <c r="E369" t="s">
+        <v>84</v>
+      </c>
+      <c r="F369" t="s">
+        <v>122</v>
+      </c>
+      <c r="G369" t="s">
+        <v>142</v>
+      </c>
+      <c r="H369" t="s">
+        <v>157</v>
+      </c>
+      <c r="I369" t="s">
+        <v>175</v>
+      </c>
+      <c r="K369" t="s">
+        <v>193</v>
+      </c>
+      <c r="M369" t="s">
+        <v>195</v>
+      </c>
+      <c r="N369" t="s">
+        <v>197</v>
+      </c>
+      <c r="O369" t="s">
+        <v>198</v>
+      </c>
+      <c r="P369" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>213</v>
+      </c>
+      <c r="R369" t="s">
+        <v>230</v>
+      </c>
+      <c r="S369" t="s">
+        <v>237</v>
+      </c>
+      <c r="T369" t="s">
+        <v>175</v>
+      </c>
+      <c r="U369" t="s">
+        <v>230</v>
+      </c>
+      <c r="V369" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="370" spans="1:22">
+      <c r="A370" t="s">
+        <v>22</v>
+      </c>
+      <c r="B370" t="s">
+        <v>58</v>
+      </c>
+      <c r="C370">
+        <v>20709</v>
+      </c>
+      <c r="E370" t="s">
+        <v>84</v>
+      </c>
+      <c r="F370" t="s">
+        <v>122</v>
+      </c>
+      <c r="G370" t="s">
+        <v>142</v>
+      </c>
+      <c r="H370" t="s">
+        <v>157</v>
+      </c>
+      <c r="I370" t="s">
+        <v>175</v>
+      </c>
+      <c r="K370" t="s">
+        <v>193</v>
+      </c>
+      <c r="M370" t="s">
+        <v>195</v>
+      </c>
+      <c r="N370" t="s">
+        <v>197</v>
+      </c>
+      <c r="O370" t="s">
+        <v>198</v>
+      </c>
+      <c r="P370" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q370" t="s">
+        <v>213</v>
+      </c>
+      <c r="R370" t="s">
+        <v>230</v>
+      </c>
+      <c r="S370" t="s">
+        <v>237</v>
+      </c>
+      <c r="T370" t="s">
+        <v>175</v>
+      </c>
+      <c r="U370" t="s">
+        <v>230</v>
+      </c>
+      <c r="V370" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="371" spans="1:22">
+      <c r="A371" t="s">
+        <v>22</v>
+      </c>
+      <c r="B371" t="s">
+        <v>58</v>
+      </c>
+      <c r="C371">
+        <v>20709</v>
+      </c>
+      <c r="E371" t="s">
+        <v>84</v>
+      </c>
+      <c r="F371" t="s">
+        <v>122</v>
+      </c>
+      <c r="G371" t="s">
+        <v>142</v>
+      </c>
+      <c r="H371" t="s">
+        <v>157</v>
+      </c>
+      <c r="I371" t="s">
+        <v>175</v>
+      </c>
+      <c r="K371" t="s">
+        <v>193</v>
+      </c>
+      <c r="M371" t="s">
+        <v>195</v>
+      </c>
+      <c r="N371" t="s">
+        <v>197</v>
+      </c>
+      <c r="O371" t="s">
+        <v>198</v>
+      </c>
+      <c r="P371" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q371" t="s">
+        <v>213</v>
+      </c>
+      <c r="R371" t="s">
+        <v>230</v>
+      </c>
+      <c r="S371" t="s">
+        <v>237</v>
+      </c>
+      <c r="T371" t="s">
+        <v>175</v>
+      </c>
+      <c r="U371" t="s">
+        <v>230</v>
+      </c>
+      <c r="V371" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="372" spans="1:22">
+      <c r="A372" t="s">
+        <v>22</v>
+      </c>
+      <c r="B372" t="s">
+        <v>58</v>
+      </c>
+      <c r="C372">
+        <v>20709</v>
+      </c>
+      <c r="E372" t="s">
+        <v>84</v>
+      </c>
+      <c r="F372" t="s">
+        <v>122</v>
+      </c>
+      <c r="G372" t="s">
+        <v>142</v>
+      </c>
+      <c r="H372" t="s">
+        <v>157</v>
+      </c>
+      <c r="I372" t="s">
+        <v>175</v>
+      </c>
+      <c r="K372" t="s">
+        <v>193</v>
+      </c>
+      <c r="M372" t="s">
+        <v>195</v>
+      </c>
+      <c r="N372" t="s">
+        <v>197</v>
+      </c>
+      <c r="O372" t="s">
+        <v>198</v>
+      </c>
+      <c r="P372" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q372" t="s">
+        <v>213</v>
+      </c>
+      <c r="R372" t="s">
+        <v>230</v>
+      </c>
+      <c r="S372" t="s">
+        <v>237</v>
+      </c>
+      <c r="T372" t="s">
+        <v>175</v>
+      </c>
+      <c r="U372" t="s">
+        <v>230</v>
+      </c>
+      <c r="V372" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="373" spans="1:22">
+      <c r="A373" t="s">
+        <v>22</v>
+      </c>
+      <c r="B373" t="s">
+        <v>60</v>
+      </c>
+      <c r="C373">
+        <v>27270</v>
+      </c>
+      <c r="E373" t="s">
+        <v>87</v>
+      </c>
+      <c r="F373" t="s">
+        <v>124</v>
+      </c>
+      <c r="G373" t="s">
+        <v>142</v>
+      </c>
+      <c r="H373" t="s">
+        <v>157</v>
+      </c>
+      <c r="I373" t="s">
+        <v>175</v>
+      </c>
+      <c r="K373" t="s">
+        <v>193</v>
+      </c>
+      <c r="M373" t="s">
+        <v>195</v>
+      </c>
+      <c r="N373" t="s">
+        <v>197</v>
+      </c>
+      <c r="O373" t="s">
+        <v>198</v>
+      </c>
+      <c r="P373" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q373" t="s">
+        <v>213</v>
+      </c>
+      <c r="R373" t="s">
+        <v>230</v>
+      </c>
+      <c r="S373" t="s">
+        <v>237</v>
+      </c>
+      <c r="T373" t="s">
+        <v>175</v>
+      </c>
+      <c r="U373" t="s">
+        <v>230</v>
+      </c>
+      <c r="V373" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="374" spans="1:22">
+      <c r="A374" t="s">
+        <v>22</v>
+      </c>
+      <c r="B374" t="s">
+        <v>58</v>
+      </c>
+      <c r="C374">
+        <v>20709</v>
+      </c>
+      <c r="E374" t="s">
+        <v>84</v>
+      </c>
+      <c r="F374" t="s">
+        <v>122</v>
+      </c>
+      <c r="G374" t="s">
+        <v>142</v>
+      </c>
+      <c r="H374" t="s">
+        <v>157</v>
+      </c>
+      <c r="I374" t="s">
+        <v>175</v>
+      </c>
+      <c r="K374" t="s">
+        <v>193</v>
+      </c>
+      <c r="M374" t="s">
+        <v>195</v>
+      </c>
+      <c r="N374" t="s">
+        <v>197</v>
+      </c>
+      <c r="O374" t="s">
+        <v>198</v>
+      </c>
+      <c r="P374" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q374" t="s">
+        <v>213</v>
+      </c>
+      <c r="R374" t="s">
+        <v>230</v>
+      </c>
+      <c r="S374" t="s">
+        <v>237</v>
+      </c>
+      <c r="T374" t="s">
+        <v>175</v>
+      </c>
+      <c r="U374" t="s">
+        <v>230</v>
+      </c>
+      <c r="V374" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="375" spans="1:22">
+      <c r="A375" t="s">
+        <v>22</v>
+      </c>
+      <c r="B375" t="s">
+        <v>58</v>
+      </c>
+      <c r="C375">
+        <v>20709</v>
+      </c>
+      <c r="E375" t="s">
+        <v>84</v>
+      </c>
+      <c r="F375" t="s">
+        <v>122</v>
+      </c>
+      <c r="G375" t="s">
+        <v>142</v>
+      </c>
+      <c r="H375" t="s">
+        <v>157</v>
+      </c>
+      <c r="I375" t="s">
+        <v>175</v>
+      </c>
+      <c r="K375" t="s">
+        <v>193</v>
+      </c>
+      <c r="M375" t="s">
+        <v>195</v>
+      </c>
+      <c r="N375" t="s">
+        <v>197</v>
+      </c>
+      <c r="O375" t="s">
+        <v>198</v>
+      </c>
+      <c r="P375" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q375" t="s">
+        <v>213</v>
+      </c>
+      <c r="R375" t="s">
+        <v>230</v>
+      </c>
+      <c r="S375" t="s">
+        <v>237</v>
+      </c>
+      <c r="T375" t="s">
+        <v>175</v>
+      </c>
+      <c r="U375" t="s">
+        <v>230</v>
+      </c>
+      <c r="V375" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="376" spans="1:22">
+      <c r="A376" t="s">
+        <v>22</v>
+      </c>
+      <c r="B376" t="s">
+        <v>58</v>
+      </c>
+      <c r="C376">
+        <v>20709</v>
+      </c>
+      <c r="E376" t="s">
+        <v>84</v>
+      </c>
+      <c r="F376" t="s">
+        <v>122</v>
+      </c>
+      <c r="G376" t="s">
+        <v>142</v>
+      </c>
+      <c r="H376" t="s">
+        <v>157</v>
+      </c>
+      <c r="I376" t="s">
+        <v>175</v>
+      </c>
+      <c r="K376" t="s">
+        <v>193</v>
+      </c>
+      <c r="M376" t="s">
+        <v>195</v>
+      </c>
+      <c r="N376" t="s">
+        <v>197</v>
+      </c>
+      <c r="O376" t="s">
+        <v>198</v>
+      </c>
+      <c r="P376" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q376" t="s">
+        <v>213</v>
+      </c>
+      <c r="R376" t="s">
+        <v>230</v>
+      </c>
+      <c r="S376" t="s">
+        <v>237</v>
+      </c>
+      <c r="T376" t="s">
+        <v>175</v>
+      </c>
+      <c r="U376" t="s">
+        <v>230</v>
+      </c>
+      <c r="V376" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="377" spans="1:22">
+      <c r="A377" t="s">
+        <v>22</v>
+      </c>
+      <c r="B377" t="s">
+        <v>58</v>
+      </c>
+      <c r="C377">
+        <v>20709</v>
+      </c>
+      <c r="E377" t="s">
+        <v>84</v>
+      </c>
+      <c r="F377" t="s">
+        <v>122</v>
+      </c>
+      <c r="G377" t="s">
+        <v>142</v>
+      </c>
+      <c r="H377" t="s">
+        <v>157</v>
+      </c>
+      <c r="I377" t="s">
+        <v>175</v>
+      </c>
+      <c r="K377" t="s">
+        <v>193</v>
+      </c>
+      <c r="M377" t="s">
+        <v>195</v>
+      </c>
+      <c r="N377" t="s">
+        <v>197</v>
+      </c>
+      <c r="O377" t="s">
+        <v>198</v>
+      </c>
+      <c r="P377" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q377" t="s">
+        <v>213</v>
+      </c>
+      <c r="R377" t="s">
+        <v>230</v>
+      </c>
+      <c r="S377" t="s">
+        <v>237</v>
+      </c>
+      <c r="T377" t="s">
+        <v>175</v>
+      </c>
+      <c r="U377" t="s">
+        <v>230</v>
+      </c>
+      <c r="V377" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="378" spans="1:22">
+      <c r="A378" t="s">
+        <v>22</v>
+      </c>
+      <c r="B378" t="s">
+        <v>61</v>
+      </c>
+      <c r="C378">
+        <v>21155</v>
+      </c>
+      <c r="E378" t="s">
+        <v>84</v>
+      </c>
+      <c r="F378" t="s">
+        <v>125</v>
+      </c>
+      <c r="G378" t="s">
+        <v>154</v>
+      </c>
+      <c r="H378" t="s">
+        <v>157</v>
+      </c>
+      <c r="I378" t="s">
+        <v>175</v>
+      </c>
+      <c r="K378" t="s">
+        <v>193</v>
+      </c>
+      <c r="M378" t="s">
+        <v>195</v>
+      </c>
+      <c r="N378" t="s">
+        <v>197</v>
+      </c>
+      <c r="O378" t="s">
+        <v>198</v>
+      </c>
+      <c r="P378" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q378" t="s">
+        <v>213</v>
+      </c>
+      <c r="R378" t="s">
+        <v>230</v>
+      </c>
+      <c r="S378" t="s">
+        <v>237</v>
+      </c>
+      <c r="T378" t="s">
+        <v>175</v>
+      </c>
+      <c r="U378" t="s">
+        <v>230</v>
+      </c>
+      <c r="V378" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="379" spans="1:22">
+      <c r="A379" t="s">
+        <v>22</v>
+      </c>
+      <c r="B379" t="s">
+        <v>58</v>
+      </c>
+      <c r="C379">
+        <v>20709</v>
+      </c>
+      <c r="E379" t="s">
+        <v>84</v>
+      </c>
+      <c r="F379" t="s">
+        <v>122</v>
+      </c>
+      <c r="G379" t="s">
+        <v>142</v>
+      </c>
+      <c r="H379" t="s">
+        <v>157</v>
+      </c>
+      <c r="I379" t="s">
+        <v>175</v>
+      </c>
+      <c r="K379" t="s">
+        <v>193</v>
+      </c>
+      <c r="M379" t="s">
+        <v>195</v>
+      </c>
+      <c r="N379" t="s">
+        <v>197</v>
+      </c>
+      <c r="O379" t="s">
+        <v>198</v>
+      </c>
+      <c r="P379" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q379" t="s">
+        <v>213</v>
+      </c>
+      <c r="R379" t="s">
+        <v>230</v>
+      </c>
+      <c r="S379" t="s">
+        <v>237</v>
+      </c>
+      <c r="T379" t="s">
+        <v>175</v>
+      </c>
+      <c r="U379" t="s">
+        <v>230</v>
+      </c>
+      <c r="V379" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="380" spans="1:22">
+      <c r="A380" t="s">
+        <v>22</v>
+      </c>
+      <c r="B380" t="s">
+        <v>58</v>
+      </c>
+      <c r="C380">
+        <v>20709</v>
+      </c>
+      <c r="E380" t="s">
+        <v>84</v>
+      </c>
+      <c r="F380" t="s">
+        <v>122</v>
+      </c>
+      <c r="G380" t="s">
+        <v>142</v>
+      </c>
+      <c r="H380" t="s">
+        <v>157</v>
+      </c>
+      <c r="I380" t="s">
+        <v>175</v>
+      </c>
+      <c r="K380" t="s">
+        <v>193</v>
+      </c>
+      <c r="M380" t="s">
+        <v>195</v>
+      </c>
+      <c r="N380" t="s">
+        <v>197</v>
+      </c>
+      <c r="O380" t="s">
+        <v>198</v>
+      </c>
+      <c r="P380" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q380" t="s">
+        <v>213</v>
+      </c>
+      <c r="R380" t="s">
+        <v>230</v>
+      </c>
+      <c r="S380" t="s">
+        <v>237</v>
+      </c>
+      <c r="T380" t="s">
+        <v>175</v>
+      </c>
+      <c r="U380" t="s">
+        <v>230</v>
+      </c>
+      <c r="V380" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="381" spans="1:22">
+      <c r="A381" t="s">
+        <v>22</v>
+      </c>
+      <c r="B381" t="s">
+        <v>62</v>
+      </c>
+      <c r="C381">
+        <v>27540</v>
+      </c>
+      <c r="E381" t="s">
+        <v>87</v>
+      </c>
+      <c r="F381" t="s">
+        <v>124</v>
+      </c>
+      <c r="G381" t="s">
+        <v>154</v>
+      </c>
+      <c r="H381" t="s">
+        <v>157</v>
+      </c>
+      <c r="I381" t="s">
+        <v>175</v>
+      </c>
+      <c r="K381" t="s">
+        <v>193</v>
+      </c>
+      <c r="M381" t="s">
+        <v>195</v>
+      </c>
+      <c r="N381" t="s">
+        <v>197</v>
+      </c>
+      <c r="O381" t="s">
+        <v>198</v>
+      </c>
+      <c r="P381" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q381" t="s">
+        <v>213</v>
+      </c>
+      <c r="R381" t="s">
+        <v>230</v>
+      </c>
+      <c r="S381" t="s">
+        <v>237</v>
+      </c>
+      <c r="T381" t="s">
+        <v>175</v>
+      </c>
+      <c r="U381" t="s">
+        <v>230</v>
+      </c>
+      <c r="V381" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="382" spans="1:22">
+      <c r="A382" t="s">
+        <v>22</v>
+      </c>
+      <c r="B382" t="s">
+        <v>58</v>
+      </c>
+      <c r="C382">
+        <v>20709</v>
+      </c>
+      <c r="E382" t="s">
+        <v>84</v>
+      </c>
+      <c r="F382" t="s">
+        <v>122</v>
+      </c>
+      <c r="G382" t="s">
+        <v>142</v>
+      </c>
+      <c r="H382" t="s">
+        <v>157</v>
+      </c>
+      <c r="I382" t="s">
+        <v>175</v>
+      </c>
+      <c r="K382" t="s">
+        <v>193</v>
+      </c>
+      <c r="M382" t="s">
+        <v>195</v>
+      </c>
+      <c r="N382" t="s">
+        <v>197</v>
+      </c>
+      <c r="O382" t="s">
+        <v>198</v>
+      </c>
+      <c r="P382" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q382" t="s">
+        <v>213</v>
+      </c>
+      <c r="R382" t="s">
+        <v>230</v>
+      </c>
+      <c r="S382" t="s">
+        <v>237</v>
+      </c>
+      <c r="T382" t="s">
+        <v>175</v>
+      </c>
+      <c r="U382" t="s">
+        <v>230</v>
+      </c>
+      <c r="V382" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="383" spans="1:22">
+      <c r="A383" t="s">
+        <v>22</v>
+      </c>
+      <c r="B383" t="s">
+        <v>58</v>
+      </c>
+      <c r="C383">
+        <v>20709</v>
+      </c>
+      <c r="E383" t="s">
+        <v>84</v>
+      </c>
+      <c r="F383" t="s">
+        <v>122</v>
+      </c>
+      <c r="G383" t="s">
+        <v>142</v>
+      </c>
+      <c r="H383" t="s">
+        <v>157</v>
+      </c>
+      <c r="I383" t="s">
+        <v>175</v>
+      </c>
+      <c r="K383" t="s">
+        <v>193</v>
+      </c>
+      <c r="M383" t="s">
+        <v>195</v>
+      </c>
+      <c r="N383" t="s">
+        <v>197</v>
+      </c>
+      <c r="O383" t="s">
+        <v>198</v>
+      </c>
+      <c r="P383" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q383" t="s">
+        <v>213</v>
+      </c>
+      <c r="R383" t="s">
+        <v>230</v>
+      </c>
+      <c r="S383" t="s">
+        <v>237</v>
+      </c>
+      <c r="T383" t="s">
+        <v>175</v>
+      </c>
+      <c r="U383" t="s">
+        <v>230</v>
+      </c>
+      <c r="V383" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="384" spans="1:22">
+      <c r="A384" t="s">
+        <v>22</v>
+      </c>
+      <c r="B384" t="s">
+        <v>58</v>
+      </c>
+      <c r="C384">
+        <v>20709</v>
+      </c>
+      <c r="E384" t="s">
+        <v>84</v>
+      </c>
+      <c r="F384" t="s">
+        <v>122</v>
+      </c>
+      <c r="G384" t="s">
+        <v>142</v>
+      </c>
+      <c r="H384" t="s">
+        <v>157</v>
+      </c>
+      <c r="I384" t="s">
+        <v>175</v>
+      </c>
+      <c r="K384" t="s">
+        <v>193</v>
+      </c>
+      <c r="M384" t="s">
+        <v>195</v>
+      </c>
+      <c r="N384" t="s">
+        <v>197</v>
+      </c>
+      <c r="O384" t="s">
+        <v>198</v>
+      </c>
+      <c r="P384" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>213</v>
+      </c>
+      <c r="R384" t="s">
+        <v>230</v>
+      </c>
+      <c r="S384" t="s">
+        <v>237</v>
+      </c>
+      <c r="T384" t="s">
+        <v>175</v>
+      </c>
+      <c r="U384" t="s">
+        <v>230</v>
+      </c>
+      <c r="V384" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="385" spans="1:22">
+      <c r="A385" t="s">
+        <v>22</v>
+      </c>
+      <c r="B385" t="s">
+        <v>58</v>
+      </c>
+      <c r="C385">
+        <v>20709</v>
+      </c>
+      <c r="E385" t="s">
+        <v>84</v>
+      </c>
+      <c r="F385" t="s">
+        <v>122</v>
+      </c>
+      <c r="G385" t="s">
+        <v>142</v>
+      </c>
+      <c r="H385" t="s">
+        <v>157</v>
+      </c>
+      <c r="I385" t="s">
+        <v>175</v>
+      </c>
+      <c r="K385" t="s">
+        <v>193</v>
+      </c>
+      <c r="M385" t="s">
+        <v>195</v>
+      </c>
+      <c r="N385" t="s">
+        <v>197</v>
+      </c>
+      <c r="O385" t="s">
+        <v>198</v>
+      </c>
+      <c r="P385" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q385" t="s">
+        <v>213</v>
+      </c>
+      <c r="R385" t="s">
+        <v>230</v>
+      </c>
+      <c r="S385" t="s">
+        <v>237</v>
+      </c>
+      <c r="T385" t="s">
+        <v>175</v>
+      </c>
+      <c r="U385" t="s">
+        <v>230</v>
+      </c>
+      <c r="V385" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="386" spans="1:22">
+      <c r="A386" t="s">
+        <v>22</v>
+      </c>
+      <c r="B386" t="s">
+        <v>58</v>
+      </c>
+      <c r="C386">
+        <v>20709</v>
+      </c>
+      <c r="E386" t="s">
+        <v>84</v>
+      </c>
+      <c r="F386" t="s">
+        <v>122</v>
+      </c>
+      <c r="G386" t="s">
+        <v>142</v>
+      </c>
+      <c r="H386" t="s">
+        <v>157</v>
+      </c>
+      <c r="I386" t="s">
+        <v>175</v>
+      </c>
+      <c r="K386" t="s">
+        <v>193</v>
+      </c>
+      <c r="M386" t="s">
+        <v>195</v>
+      </c>
+      <c r="N386" t="s">
+        <v>197</v>
+      </c>
+      <c r="O386" t="s">
+        <v>198</v>
+      </c>
+      <c r="P386" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>213</v>
+      </c>
+      <c r="R386" t="s">
+        <v>230</v>
+      </c>
+      <c r="S386" t="s">
+        <v>237</v>
+      </c>
+      <c r="T386" t="s">
+        <v>175</v>
+      </c>
+      <c r="U386" t="s">
+        <v>230</v>
+      </c>
+      <c r="V386" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="387" spans="1:22">
+      <c r="A387" t="s">
+        <v>22</v>
+      </c>
+      <c r="B387" t="s">
+        <v>58</v>
+      </c>
+      <c r="C387">
+        <v>20709</v>
+      </c>
+      <c r="E387" t="s">
+        <v>84</v>
+      </c>
+      <c r="F387" t="s">
+        <v>122</v>
+      </c>
+      <c r="G387" t="s">
+        <v>142</v>
+      </c>
+      <c r="H387" t="s">
+        <v>157</v>
+      </c>
+      <c r="I387" t="s">
+        <v>175</v>
+      </c>
+      <c r="K387" t="s">
+        <v>193</v>
+      </c>
+      <c r="M387" t="s">
+        <v>195</v>
+      </c>
+      <c r="N387" t="s">
+        <v>197</v>
+      </c>
+      <c r="O387" t="s">
+        <v>198</v>
+      </c>
+      <c r="P387" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q387" t="s">
+        <v>213</v>
+      </c>
+      <c r="R387" t="s">
+        <v>230</v>
+      </c>
+      <c r="S387" t="s">
+        <v>237</v>
+      </c>
+      <c r="T387" t="s">
+        <v>175</v>
+      </c>
+      <c r="U387" t="s">
+        <v>230</v>
+      </c>
+      <c r="V387" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="388" spans="1:22">
+      <c r="A388" t="s">
+        <v>22</v>
+      </c>
+      <c r="B388" t="s">
+        <v>63</v>
+      </c>
+      <c r="C388">
+        <v>49075</v>
+      </c>
+      <c r="E388" t="s">
+        <v>86</v>
+      </c>
+      <c r="F388" t="s">
+        <v>126</v>
+      </c>
+      <c r="G388" t="s">
+        <v>154</v>
+      </c>
+      <c r="H388" t="s">
+        <v>157</v>
+      </c>
+      <c r="I388" t="s">
+        <v>175</v>
+      </c>
+      <c r="K388" t="s">
+        <v>193</v>
+      </c>
+      <c r="M388" t="s">
+        <v>195</v>
+      </c>
+      <c r="N388" t="s">
+        <v>197</v>
+      </c>
+      <c r="O388" t="s">
+        <v>198</v>
+      </c>
+      <c r="P388" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q388" t="s">
+        <v>213</v>
+      </c>
+      <c r="R388" t="s">
+        <v>230</v>
+      </c>
+      <c r="S388" t="s">
+        <v>237</v>
+      </c>
+      <c r="T388" t="s">
+        <v>175</v>
+      </c>
+      <c r="U388" t="s">
+        <v>230</v>
+      </c>
+      <c r="V388" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="389" spans="1:22">
+      <c r="A389" t="s">
+        <v>22</v>
+      </c>
+      <c r="B389" t="s">
+        <v>64</v>
+      </c>
+      <c r="C389">
+        <v>29185</v>
+      </c>
+      <c r="E389" t="s">
+        <v>87</v>
+      </c>
+      <c r="F389" t="s">
+        <v>124</v>
+      </c>
+      <c r="G389" t="s">
+        <v>142</v>
+      </c>
+      <c r="H389" t="s">
+        <v>157</v>
+      </c>
+      <c r="I389" t="s">
+        <v>175</v>
+      </c>
+      <c r="K389" t="s">
+        <v>193</v>
+      </c>
+      <c r="M389" t="s">
+        <v>195</v>
+      </c>
+      <c r="N389" t="s">
+        <v>197</v>
+      </c>
+      <c r="O389" t="s">
+        <v>198</v>
+      </c>
+      <c r="P389" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>213</v>
+      </c>
+      <c r="R389" t="s">
+        <v>230</v>
+      </c>
+      <c r="S389" t="s">
+        <v>237</v>
+      </c>
+      <c r="T389" t="s">
+        <v>175</v>
+      </c>
+      <c r="U389" t="s">
+        <v>230</v>
+      </c>
+      <c r="V389" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="390" spans="1:22">
+      <c r="A390" t="s">
+        <v>22</v>
+      </c>
+      <c r="B390" t="s">
+        <v>58</v>
+      </c>
+      <c r="C390">
+        <v>20709</v>
+      </c>
+      <c r="E390" t="s">
+        <v>84</v>
+      </c>
+      <c r="F390" t="s">
+        <v>122</v>
+      </c>
+      <c r="G390" t="s">
+        <v>142</v>
+      </c>
+      <c r="H390" t="s">
+        <v>157</v>
+      </c>
+      <c r="I390" t="s">
+        <v>175</v>
+      </c>
+      <c r="K390" t="s">
+        <v>193</v>
+      </c>
+      <c r="M390" t="s">
+        <v>195</v>
+      </c>
+      <c r="N390" t="s">
+        <v>197</v>
+      </c>
+      <c r="O390" t="s">
+        <v>198</v>
+      </c>
+      <c r="P390" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>213</v>
+      </c>
+      <c r="R390" t="s">
+        <v>230</v>
+      </c>
+      <c r="S390" t="s">
+        <v>237</v>
+      </c>
+      <c r="T390" t="s">
+        <v>175</v>
+      </c>
+      <c r="U390" t="s">
+        <v>230</v>
+      </c>
+      <c r="V390" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="391" spans="1:22">
+      <c r="A391" t="s">
+        <v>22</v>
+      </c>
+      <c r="B391" t="s">
+        <v>58</v>
+      </c>
+      <c r="C391">
+        <v>20709</v>
+      </c>
+      <c r="E391" t="s">
+        <v>84</v>
+      </c>
+      <c r="F391" t="s">
+        <v>122</v>
+      </c>
+      <c r="G391" t="s">
+        <v>142</v>
+      </c>
+      <c r="H391" t="s">
+        <v>157</v>
+      </c>
+      <c r="I391" t="s">
+        <v>175</v>
+      </c>
+      <c r="K391" t="s">
+        <v>193</v>
+      </c>
+      <c r="M391" t="s">
+        <v>195</v>
+      </c>
+      <c r="N391" t="s">
+        <v>197</v>
+      </c>
+      <c r="O391" t="s">
+        <v>198</v>
+      </c>
+      <c r="P391" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>213</v>
+      </c>
+      <c r="R391" t="s">
+        <v>230</v>
+      </c>
+      <c r="S391" t="s">
+        <v>237</v>
+      </c>
+      <c r="T391" t="s">
+        <v>175</v>
+      </c>
+      <c r="U391" t="s">
+        <v>230</v>
+      </c>
+      <c r="V391" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel_tables/3.3_vehicles.xlsx
+++ b/data/excel_tables/3.3_vehicles.xlsx
@@ -907,6 +907,9 @@
     <t>8fc7f450-fd93-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
+    <t>b6d79a60-fe3c-11ee-bce9-638f8e04ad34</t>
+  </si>
+  <si>
     <t>81af01a0-023f-11ef-a826-5536b50ce648</t>
   </si>
   <si>
@@ -947,9 +950,6 @@
   </si>
   <si>
     <t>a43aa490-564a-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>b6d79a60-fe3c-11ee-bce9-638f8e04ad34</t>
   </si>
 </sst>
 </file>
@@ -19879,25 +19879,28 @@
         <v>22</v>
       </c>
       <c r="B319" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C319">
+        <v>600996.14</v>
       </c>
       <c r="E319" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F319" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G319" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H319" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I319" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K319" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M319" t="s">
         <v>208</v>
@@ -19906,25 +19909,25 @@
         <v>210</v>
       </c>
       <c r="O319" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P319" t="s">
         <v>165</v>
       </c>
       <c r="Q319" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R319" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S319" t="s">
         <v>254</v>
       </c>
       <c r="T319" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U319" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V319" t="s">
         <v>297</v>
@@ -19935,25 +19938,25 @@
         <v>22</v>
       </c>
       <c r="B320" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C320">
-        <v>20709</v>
+        <v>600996.14</v>
       </c>
       <c r="E320" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F320" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G320" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H320" t="s">
         <v>166</v>
       </c>
       <c r="I320" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="K320" t="s">
         <v>206</v>
@@ -19965,28 +19968,28 @@
         <v>210</v>
       </c>
       <c r="O320" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P320" t="s">
         <v>165</v>
       </c>
       <c r="Q320" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="R320" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="S320" t="s">
         <v>254</v>
       </c>
       <c r="T320" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="U320" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="V320" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="321" spans="1:22">
@@ -19994,25 +19997,25 @@
         <v>22</v>
       </c>
       <c r="B321" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C321">
-        <v>20709</v>
+        <v>747717.03</v>
       </c>
       <c r="E321" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F321" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="G321" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H321" t="s">
         <v>166</v>
       </c>
       <c r="I321" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="K321" t="s">
         <v>206</v>
@@ -20024,28 +20027,28 @@
         <v>210</v>
       </c>
       <c r="O321" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P321" t="s">
         <v>165</v>
       </c>
       <c r="Q321" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="R321" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="S321" t="s">
         <v>254</v>
       </c>
       <c r="T321" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="U321" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="V321" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="322" spans="1:22">
@@ -20053,25 +20056,25 @@
         <v>22</v>
       </c>
       <c r="B322" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C322">
-        <v>20709</v>
+        <v>1271200.32</v>
       </c>
       <c r="E322" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F322" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G322" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H322" t="s">
         <v>166</v>
       </c>
       <c r="I322" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="K322" t="s">
         <v>206</v>
@@ -20083,28 +20086,28 @@
         <v>210</v>
       </c>
       <c r="O322" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P322" t="s">
         <v>165</v>
       </c>
       <c r="Q322" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="R322" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="S322" t="s">
         <v>254</v>
       </c>
       <c r="T322" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="U322" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="V322" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="323" spans="1:22">
@@ -20112,28 +20115,25 @@
         <v>22</v>
       </c>
       <c r="B323" t="s">
-        <v>59</v>
-      </c>
-      <c r="C323">
-        <v>20709</v>
+        <v>77</v>
       </c>
       <c r="E323" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F323" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G323" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H323" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I323" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K323" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M323" t="s">
         <v>208</v>
@@ -20148,19 +20148,19 @@
         <v>165</v>
       </c>
       <c r="Q323" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="R323" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="S323" t="s">
         <v>254</v>
       </c>
       <c r="T323" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="U323" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="V323" t="s">
         <v>298</v>
@@ -20171,19 +20171,19 @@
         <v>22</v>
       </c>
       <c r="B324" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C324">
-        <v>52600</v>
+        <v>20709</v>
       </c>
       <c r="E324" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F324" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G324" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H324" t="s">
         <v>166</v>
@@ -20222,7 +20222,7 @@
         <v>245</v>
       </c>
       <c r="V324" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="325" spans="1:22">
@@ -20281,7 +20281,7 @@
         <v>245</v>
       </c>
       <c r="V325" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="326" spans="1:22">
@@ -20340,7 +20340,7 @@
         <v>245</v>
       </c>
       <c r="V326" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="327" spans="1:22">
@@ -20348,16 +20348,16 @@
         <v>22</v>
       </c>
       <c r="B327" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C327">
-        <v>27270</v>
+        <v>20709</v>
       </c>
       <c r="E327" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F327" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G327" t="s">
         <v>150</v>
@@ -20399,7 +20399,7 @@
         <v>245</v>
       </c>
       <c r="V327" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="328" spans="1:22">
@@ -20407,19 +20407,19 @@
         <v>22</v>
       </c>
       <c r="B328" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C328">
-        <v>27270</v>
+        <v>52600</v>
       </c>
       <c r="E328" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F328" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G328" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H328" t="s">
         <v>166</v>
@@ -20458,7 +20458,7 @@
         <v>245</v>
       </c>
       <c r="V328" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="329" spans="1:22">
@@ -20517,7 +20517,7 @@
         <v>245</v>
       </c>
       <c r="V329" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="330" spans="1:22">
@@ -20576,7 +20576,7 @@
         <v>245</v>
       </c>
       <c r="V330" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="331" spans="1:22">
@@ -20584,16 +20584,16 @@
         <v>22</v>
       </c>
       <c r="B331" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C331">
-        <v>20709</v>
+        <v>27270</v>
       </c>
       <c r="E331" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F331" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G331" t="s">
         <v>150</v>
@@ -20635,7 +20635,7 @@
         <v>245</v>
       </c>
       <c r="V331" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="332" spans="1:22">
@@ -20643,16 +20643,16 @@
         <v>22</v>
       </c>
       <c r="B332" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C332">
-        <v>20709</v>
+        <v>27270</v>
       </c>
       <c r="E332" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F332" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G332" t="s">
         <v>150</v>
@@ -20694,7 +20694,7 @@
         <v>245</v>
       </c>
       <c r="V332" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="333" spans="1:22">
@@ -20753,7 +20753,7 @@
         <v>245</v>
       </c>
       <c r="V333" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="334" spans="1:22">
@@ -20812,7 +20812,7 @@
         <v>245</v>
       </c>
       <c r="V334" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="335" spans="1:22">
@@ -20820,16 +20820,16 @@
         <v>22</v>
       </c>
       <c r="B335" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C335">
-        <v>27270</v>
+        <v>20709</v>
       </c>
       <c r="E335" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F335" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G335" t="s">
         <v>150</v>
@@ -20871,7 +20871,7 @@
         <v>245</v>
       </c>
       <c r="V335" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="336" spans="1:22">
@@ -20930,7 +20930,7 @@
         <v>245</v>
       </c>
       <c r="V336" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="337" spans="1:22">
@@ -20989,7 +20989,7 @@
         <v>245</v>
       </c>
       <c r="V337" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="338" spans="1:22">
@@ -21048,7 +21048,7 @@
         <v>245</v>
       </c>
       <c r="V338" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="339" spans="1:22">
@@ -21056,16 +21056,16 @@
         <v>22</v>
       </c>
       <c r="B339" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C339">
-        <v>20709</v>
+        <v>27270</v>
       </c>
       <c r="E339" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F339" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G339" t="s">
         <v>150</v>
@@ -21107,7 +21107,7 @@
         <v>245</v>
       </c>
       <c r="V339" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="340" spans="1:22">
@@ -21115,19 +21115,19 @@
         <v>22</v>
       </c>
       <c r="B340" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C340">
-        <v>21155</v>
+        <v>20709</v>
       </c>
       <c r="E340" t="s">
         <v>89</v>
       </c>
       <c r="F340" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G340" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H340" t="s">
         <v>166</v>
@@ -21166,7 +21166,7 @@
         <v>245</v>
       </c>
       <c r="V340" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="341" spans="1:22">
@@ -21225,7 +21225,7 @@
         <v>245</v>
       </c>
       <c r="V341" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="342" spans="1:22">
@@ -21284,7 +21284,7 @@
         <v>245</v>
       </c>
       <c r="V342" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="343" spans="1:22">
@@ -21292,19 +21292,19 @@
         <v>22</v>
       </c>
       <c r="B343" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C343">
-        <v>27540</v>
+        <v>20709</v>
       </c>
       <c r="E343" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F343" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G343" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H343" t="s">
         <v>166</v>
@@ -21343,7 +21343,7 @@
         <v>245</v>
       </c>
       <c r="V343" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="344" spans="1:22">
@@ -21351,19 +21351,19 @@
         <v>22</v>
       </c>
       <c r="B344" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C344">
-        <v>20709</v>
+        <v>21155</v>
       </c>
       <c r="E344" t="s">
         <v>89</v>
       </c>
       <c r="F344" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G344" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H344" t="s">
         <v>166</v>
@@ -21402,7 +21402,7 @@
         <v>245</v>
       </c>
       <c r="V344" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="345" spans="1:22">
@@ -21461,7 +21461,7 @@
         <v>245</v>
       </c>
       <c r="V345" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="346" spans="1:22">
@@ -21520,7 +21520,7 @@
         <v>245</v>
       </c>
       <c r="V346" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="347" spans="1:22">
@@ -21528,19 +21528,19 @@
         <v>22</v>
       </c>
       <c r="B347" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C347">
-        <v>20709</v>
+        <v>27540</v>
       </c>
       <c r="E347" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F347" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G347" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H347" t="s">
         <v>166</v>
@@ -21579,7 +21579,7 @@
         <v>245</v>
       </c>
       <c r="V347" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="348" spans="1:22">
@@ -21638,7 +21638,7 @@
         <v>245</v>
       </c>
       <c r="V348" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="349" spans="1:22">
@@ -21697,7 +21697,7 @@
         <v>245</v>
       </c>
       <c r="V349" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="350" spans="1:22">
@@ -21705,19 +21705,19 @@
         <v>22</v>
       </c>
       <c r="B350" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C350">
-        <v>49075</v>
+        <v>20709</v>
       </c>
       <c r="E350" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F350" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G350" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H350" t="s">
         <v>166</v>
@@ -21756,7 +21756,7 @@
         <v>245</v>
       </c>
       <c r="V350" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="351" spans="1:22">
@@ -21764,16 +21764,16 @@
         <v>22</v>
       </c>
       <c r="B351" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C351">
-        <v>29185</v>
+        <v>20709</v>
       </c>
       <c r="E351" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F351" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G351" t="s">
         <v>150</v>
@@ -21815,7 +21815,7 @@
         <v>245</v>
       </c>
       <c r="V351" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="352" spans="1:22">
@@ -21874,7 +21874,7 @@
         <v>245</v>
       </c>
       <c r="V352" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="353" spans="1:22">
@@ -21933,7 +21933,7 @@
         <v>245</v>
       </c>
       <c r="V353" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="354" spans="1:22">
@@ -21941,19 +21941,19 @@
         <v>22</v>
       </c>
       <c r="B354" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C354">
-        <v>20709</v>
+        <v>49075</v>
       </c>
       <c r="E354" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F354" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G354" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H354" t="s">
         <v>166</v>
@@ -21974,7 +21974,7 @@
         <v>211</v>
       </c>
       <c r="P354" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="Q354" t="s">
         <v>226</v>
@@ -22000,16 +22000,16 @@
         <v>22</v>
       </c>
       <c r="B355" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C355">
-        <v>20709</v>
+        <v>29185</v>
       </c>
       <c r="E355" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F355" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G355" t="s">
         <v>150</v>
@@ -22033,7 +22033,7 @@
         <v>211</v>
       </c>
       <c r="P355" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="Q355" t="s">
         <v>226</v>
@@ -22092,7 +22092,7 @@
         <v>211</v>
       </c>
       <c r="P356" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="Q356" t="s">
         <v>226</v>
@@ -22151,7 +22151,7 @@
         <v>211</v>
       </c>
       <c r="P357" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="Q357" t="s">
         <v>226</v>
@@ -22177,19 +22177,19 @@
         <v>22</v>
       </c>
       <c r="B358" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C358">
-        <v>52600</v>
+        <v>20709</v>
       </c>
       <c r="E358" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F358" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G358" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H358" t="s">
         <v>166</v>
@@ -22228,7 +22228,7 @@
         <v>245</v>
       </c>
       <c r="V358" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="359" spans="1:22">
@@ -22287,7 +22287,7 @@
         <v>245</v>
       </c>
       <c r="V359" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="360" spans="1:22">
@@ -22346,7 +22346,7 @@
         <v>245</v>
       </c>
       <c r="V360" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="361" spans="1:22">
@@ -22354,16 +22354,16 @@
         <v>22</v>
       </c>
       <c r="B361" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C361">
-        <v>27270</v>
+        <v>20709</v>
       </c>
       <c r="E361" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F361" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G361" t="s">
         <v>150</v>
@@ -22405,7 +22405,7 @@
         <v>245</v>
       </c>
       <c r="V361" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="362" spans="1:22">
@@ -22413,19 +22413,19 @@
         <v>22</v>
       </c>
       <c r="B362" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C362">
-        <v>27270</v>
+        <v>52600</v>
       </c>
       <c r="E362" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F362" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G362" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H362" t="s">
         <v>166</v>
@@ -22464,7 +22464,7 @@
         <v>245</v>
       </c>
       <c r="V362" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="363" spans="1:22">
@@ -22523,7 +22523,7 @@
         <v>245</v>
       </c>
       <c r="V363" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="364" spans="1:22">
@@ -22582,7 +22582,7 @@
         <v>245</v>
       </c>
       <c r="V364" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="365" spans="1:22">
@@ -22590,16 +22590,16 @@
         <v>22</v>
       </c>
       <c r="B365" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C365">
-        <v>20709</v>
+        <v>27270</v>
       </c>
       <c r="E365" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F365" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G365" t="s">
         <v>150</v>
@@ -22641,7 +22641,7 @@
         <v>245</v>
       </c>
       <c r="V365" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="366" spans="1:22">
@@ -22649,16 +22649,16 @@
         <v>22</v>
       </c>
       <c r="B366" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C366">
-        <v>20709</v>
+        <v>27270</v>
       </c>
       <c r="E366" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F366" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G366" t="s">
         <v>150</v>
@@ -22700,7 +22700,7 @@
         <v>245</v>
       </c>
       <c r="V366" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="367" spans="1:22">
@@ -22759,7 +22759,7 @@
         <v>245</v>
       </c>
       <c r="V367" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="368" spans="1:22">
@@ -22818,7 +22818,7 @@
         <v>245</v>
       </c>
       <c r="V368" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="369" spans="1:22">
@@ -22826,16 +22826,16 @@
         <v>22</v>
       </c>
       <c r="B369" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C369">
-        <v>27270</v>
+        <v>20709</v>
       </c>
       <c r="E369" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F369" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G369" t="s">
         <v>150</v>
@@ -22877,7 +22877,7 @@
         <v>245</v>
       </c>
       <c r="V369" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="370" spans="1:22">
@@ -22936,7 +22936,7 @@
         <v>245</v>
       </c>
       <c r="V370" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="371" spans="1:22">
@@ -22995,7 +22995,7 @@
         <v>245</v>
       </c>
       <c r="V371" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="372" spans="1:22">
@@ -23054,7 +23054,7 @@
         <v>245</v>
       </c>
       <c r="V372" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="373" spans="1:22">
@@ -23062,16 +23062,16 @@
         <v>22</v>
       </c>
       <c r="B373" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C373">
-        <v>20709</v>
+        <v>27270</v>
       </c>
       <c r="E373" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F373" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G373" t="s">
         <v>150</v>
@@ -23113,7 +23113,7 @@
         <v>245</v>
       </c>
       <c r="V373" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="374" spans="1:22">
@@ -23121,19 +23121,19 @@
         <v>22</v>
       </c>
       <c r="B374" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C374">
-        <v>21155</v>
+        <v>20709</v>
       </c>
       <c r="E374" t="s">
         <v>89</v>
       </c>
       <c r="F374" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G374" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H374" t="s">
         <v>166</v>
@@ -23172,7 +23172,7 @@
         <v>245</v>
       </c>
       <c r="V374" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="375" spans="1:22">
@@ -23231,7 +23231,7 @@
         <v>245</v>
       </c>
       <c r="V375" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="376" spans="1:22">
@@ -23290,7 +23290,7 @@
         <v>245</v>
       </c>
       <c r="V376" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="377" spans="1:22">
@@ -23298,19 +23298,19 @@
         <v>22</v>
       </c>
       <c r="B377" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C377">
-        <v>27540</v>
+        <v>20709</v>
       </c>
       <c r="E377" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F377" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G377" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H377" t="s">
         <v>166</v>
@@ -23349,7 +23349,7 @@
         <v>245</v>
       </c>
       <c r="V377" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="378" spans="1:22">
@@ -23357,19 +23357,19 @@
         <v>22</v>
       </c>
       <c r="B378" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C378">
-        <v>20709</v>
+        <v>21155</v>
       </c>
       <c r="E378" t="s">
         <v>89</v>
       </c>
       <c r="F378" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G378" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H378" t="s">
         <v>166</v>
@@ -23408,7 +23408,7 @@
         <v>245</v>
       </c>
       <c r="V378" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="379" spans="1:22">
@@ -23467,7 +23467,7 @@
         <v>245</v>
       </c>
       <c r="V379" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="380" spans="1:22">
@@ -23526,7 +23526,7 @@
         <v>245</v>
       </c>
       <c r="V380" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="381" spans="1:22">
@@ -23534,19 +23534,19 @@
         <v>22</v>
       </c>
       <c r="B381" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C381">
-        <v>20709</v>
+        <v>27540</v>
       </c>
       <c r="E381" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F381" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G381" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H381" t="s">
         <v>166</v>
@@ -23585,7 +23585,7 @@
         <v>245</v>
       </c>
       <c r="V381" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="382" spans="1:22">
@@ -23644,7 +23644,7 @@
         <v>245</v>
       </c>
       <c r="V382" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="383" spans="1:22">
@@ -23703,7 +23703,7 @@
         <v>245</v>
       </c>
       <c r="V383" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="384" spans="1:22">
@@ -23711,19 +23711,19 @@
         <v>22</v>
       </c>
       <c r="B384" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C384">
-        <v>49075</v>
+        <v>20709</v>
       </c>
       <c r="E384" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F384" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G384" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H384" t="s">
         <v>166</v>
@@ -23762,7 +23762,7 @@
         <v>245</v>
       </c>
       <c r="V384" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="385" spans="1:22">
@@ -23770,16 +23770,16 @@
         <v>22</v>
       </c>
       <c r="B385" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C385">
-        <v>29185</v>
+        <v>20709</v>
       </c>
       <c r="E385" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F385" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G385" t="s">
         <v>150</v>
@@ -23821,7 +23821,7 @@
         <v>245</v>
       </c>
       <c r="V385" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="386" spans="1:22">
@@ -23880,7 +23880,7 @@
         <v>245</v>
       </c>
       <c r="V386" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="387" spans="1:22">
@@ -23939,7 +23939,7 @@
         <v>245</v>
       </c>
       <c r="V387" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="388" spans="1:22">
@@ -23947,25 +23947,25 @@
         <v>22</v>
       </c>
       <c r="B388" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C388">
-        <v>442580.83</v>
+        <v>49075</v>
       </c>
       <c r="E388" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F388" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="G388" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="H388" t="s">
         <v>166</v>
       </c>
       <c r="I388" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="K388" t="s">
         <v>206</v>
@@ -23977,25 +23977,25 @@
         <v>210</v>
       </c>
       <c r="O388" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P388" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q388" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="R388" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="S388" t="s">
         <v>254</v>
       </c>
       <c r="T388" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="U388" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="V388" t="s">
         <v>300</v>
@@ -24006,25 +24006,25 @@
         <v>22</v>
       </c>
       <c r="B389" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C389">
-        <v>747998.13</v>
+        <v>29185</v>
       </c>
       <c r="E389" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F389" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G389" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H389" t="s">
         <v>166</v>
       </c>
       <c r="I389" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="K389" t="s">
         <v>206</v>
@@ -24036,25 +24036,25 @@
         <v>210</v>
       </c>
       <c r="O389" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P389" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q389" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="R389" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="S389" t="s">
         <v>254</v>
       </c>
       <c r="T389" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="U389" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="V389" t="s">
         <v>300</v>
@@ -24065,25 +24065,25 @@
         <v>22</v>
       </c>
       <c r="B390" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C390">
-        <v>412819.17</v>
+        <v>20709</v>
       </c>
       <c r="E390" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F390" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="G390" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H390" t="s">
         <v>166</v>
       </c>
       <c r="I390" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="K390" t="s">
         <v>206</v>
@@ -24095,25 +24095,25 @@
         <v>210</v>
       </c>
       <c r="O390" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P390" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q390" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="R390" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="S390" t="s">
         <v>254</v>
       </c>
       <c r="T390" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="U390" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="V390" t="s">
         <v>300</v>
@@ -24124,16 +24124,16 @@
         <v>22</v>
       </c>
       <c r="B391" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C391">
-        <v>119616.2</v>
+        <v>20709</v>
       </c>
       <c r="E391" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F391" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="G391" t="s">
         <v>150</v>
@@ -24142,7 +24142,7 @@
         <v>166</v>
       </c>
       <c r="I391" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="K391" t="s">
         <v>206</v>
@@ -24154,25 +24154,25 @@
         <v>210</v>
       </c>
       <c r="O391" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P391" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q391" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="R391" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="S391" t="s">
         <v>254</v>
       </c>
       <c r="T391" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="U391" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="V391" t="s">
         <v>300</v>
@@ -24183,19 +24183,19 @@
         <v>22</v>
       </c>
       <c r="B392" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C392">
-        <v>91454</v>
+        <v>442580.83</v>
       </c>
       <c r="E392" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F392" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G392" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H392" t="s">
         <v>166</v>
@@ -24234,27 +24234,27 @@
         <v>235</v>
       </c>
       <c r="V392" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="393" spans="1:22">
       <c r="A393" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B393" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C393">
-        <v>34774.58</v>
+        <v>747998.13</v>
       </c>
       <c r="E393" t="s">
         <v>83</v>
       </c>
       <c r="F393" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G393" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H393" t="s">
         <v>166</v>
@@ -24293,7 +24293,7 @@
         <v>235</v>
       </c>
       <c r="V393" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="394" spans="1:22">
@@ -24301,19 +24301,19 @@
         <v>22</v>
       </c>
       <c r="B394" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C394">
-        <v>109121.6</v>
+        <v>412819.17</v>
       </c>
       <c r="E394" t="s">
         <v>82</v>
       </c>
       <c r="F394" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G394" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H394" t="s">
         <v>166</v>
@@ -24352,7 +24352,7 @@
         <v>235</v>
       </c>
       <c r="V394" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="395" spans="1:22">
@@ -24360,19 +24360,19 @@
         <v>22</v>
       </c>
       <c r="B395" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C395">
-        <v>159817</v>
+        <v>119616.2</v>
       </c>
       <c r="E395" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F395" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G395" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H395" t="s">
         <v>166</v>
@@ -24411,7 +24411,7 @@
         <v>235</v>
       </c>
       <c r="V395" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="396" spans="1:22">
@@ -24419,19 +24419,19 @@
         <v>22</v>
       </c>
       <c r="B396" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C396">
-        <v>112434</v>
+        <v>91454</v>
       </c>
       <c r="E396" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F396" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G396" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H396" t="s">
         <v>166</v>
@@ -24470,27 +24470,27 @@
         <v>235</v>
       </c>
       <c r="V396" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="397" spans="1:22">
       <c r="A397" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B397" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C397">
-        <v>85900</v>
+        <v>34774.58</v>
       </c>
       <c r="E397" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F397" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G397" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H397" t="s">
         <v>166</v>
@@ -24529,27 +24529,27 @@
         <v>235</v>
       </c>
       <c r="V397" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="398" spans="1:22">
       <c r="A398" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B398" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C398">
-        <v>74870</v>
+        <v>109121.6</v>
       </c>
       <c r="E398" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F398" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G398" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H398" t="s">
         <v>166</v>
@@ -24588,27 +24588,27 @@
         <v>235</v>
       </c>
       <c r="V398" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="399" spans="1:22">
       <c r="A399" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B399" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C399">
-        <v>92720</v>
+        <v>159817</v>
       </c>
       <c r="E399" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F399" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G399" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H399" t="s">
         <v>166</v>
@@ -24647,7 +24647,7 @@
         <v>235</v>
       </c>
       <c r="V399" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="400" spans="1:22">
@@ -24655,19 +24655,19 @@
         <v>22</v>
       </c>
       <c r="B400" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C400">
-        <v>525000</v>
+        <v>112434</v>
       </c>
       <c r="E400" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F400" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G400" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H400" t="s">
         <v>166</v>
@@ -24706,24 +24706,24 @@
         <v>235</v>
       </c>
       <c r="V400" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="401" spans="1:22">
       <c r="A401" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B401" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C401">
-        <v>209169.05</v>
+        <v>85900</v>
       </c>
       <c r="E401" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F401" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G401" t="s">
         <v>152</v>
@@ -24765,24 +24765,24 @@
         <v>235</v>
       </c>
       <c r="V401" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="402" spans="1:22">
       <c r="A402" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B402" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C402">
-        <v>176750</v>
+        <v>74870</v>
       </c>
       <c r="E402" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F402" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G402" t="s">
         <v>154</v>
@@ -24824,27 +24824,27 @@
         <v>235</v>
       </c>
       <c r="V402" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="403" spans="1:22">
       <c r="A403" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B403" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C403">
-        <v>6973.82</v>
+        <v>92720</v>
       </c>
       <c r="E403" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F403" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G403" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H403" t="s">
         <v>166</v>
@@ -24883,7 +24883,7 @@
         <v>235</v>
       </c>
       <c r="V403" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="404" spans="1:22">
@@ -24891,19 +24891,19 @@
         <v>22</v>
       </c>
       <c r="B404" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C404">
-        <v>6899.29</v>
+        <v>525000</v>
       </c>
       <c r="E404" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F404" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G404" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H404" t="s">
         <v>166</v>
@@ -24942,27 +24942,27 @@
         <v>235</v>
       </c>
       <c r="V404" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="405" spans="1:22">
       <c r="A405" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B405" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C405">
-        <v>7057.36</v>
+        <v>209169.05</v>
       </c>
       <c r="E405" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F405" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G405" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H405" t="s">
         <v>166</v>
@@ -25001,7 +25001,7 @@
         <v>235</v>
       </c>
       <c r="V405" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="406" spans="1:22">
@@ -25009,28 +25009,28 @@
         <v>22</v>
       </c>
       <c r="B406" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C406">
-        <v>445000</v>
+        <v>176750</v>
       </c>
       <c r="E406" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F406" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G406" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H406" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I406" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K406" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M406" t="s">
         <v>208</v>
@@ -25060,7 +25060,7 @@
         <v>235</v>
       </c>
       <c r="V406" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="407" spans="1:22">
@@ -25068,28 +25068,28 @@
         <v>22</v>
       </c>
       <c r="B407" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C407">
-        <v>445000</v>
+        <v>6973.82</v>
       </c>
       <c r="E407" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F407" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G407" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H407" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I407" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K407" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M407" t="s">
         <v>208</v>
@@ -25119,7 +25119,7 @@
         <v>235</v>
       </c>
       <c r="V407" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="408" spans="1:22">
@@ -25127,28 +25127,28 @@
         <v>22</v>
       </c>
       <c r="B408" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C408">
-        <v>368000</v>
+        <v>6899.29</v>
       </c>
       <c r="E408" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F408" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G408" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H408" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I408" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K408" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M408" t="s">
         <v>208</v>
@@ -25178,7 +25178,7 @@
         <v>235</v>
       </c>
       <c r="V408" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="409" spans="1:22">
@@ -25186,28 +25186,28 @@
         <v>22</v>
       </c>
       <c r="B409" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C409">
-        <v>368000</v>
+        <v>7057.36</v>
       </c>
       <c r="E409" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F409" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G409" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H409" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I409" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K409" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M409" t="s">
         <v>208</v>
@@ -25237,7 +25237,7 @@
         <v>235</v>
       </c>
       <c r="V409" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="410" spans="1:22">
@@ -25248,16 +25248,16 @@
         <v>44</v>
       </c>
       <c r="C410">
-        <v>368000</v>
+        <v>445000</v>
       </c>
       <c r="E410" t="s">
         <v>84</v>
       </c>
       <c r="F410" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G410" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H410" t="s">
         <v>167</v>
@@ -25296,7 +25296,7 @@
         <v>235</v>
       </c>
       <c r="V410" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="411" spans="1:22">
@@ -25307,16 +25307,16 @@
         <v>44</v>
       </c>
       <c r="C411">
-        <v>368000</v>
+        <v>445000</v>
       </c>
       <c r="E411" t="s">
         <v>84</v>
       </c>
       <c r="F411" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G411" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H411" t="s">
         <v>167</v>
@@ -25355,7 +25355,7 @@
         <v>235</v>
       </c>
       <c r="V411" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="412" spans="1:22">
@@ -25414,7 +25414,7 @@
         <v>235</v>
       </c>
       <c r="V412" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="413" spans="1:22">
@@ -25422,28 +25422,28 @@
         <v>22</v>
       </c>
       <c r="B413" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C413">
-        <v>4162724</v>
+        <v>368000</v>
       </c>
       <c r="E413" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F413" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G413" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H413" t="s">
         <v>167</v>
       </c>
       <c r="I413" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K413" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M413" t="s">
         <v>208</v>
@@ -25473,7 +25473,7 @@
         <v>235</v>
       </c>
       <c r="V413" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="414" spans="1:22">
@@ -25481,28 +25481,28 @@
         <v>22</v>
       </c>
       <c r="B414" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C414">
-        <v>1741635</v>
+        <v>368000</v>
       </c>
       <c r="E414" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F414" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G414" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H414" t="s">
         <v>167</v>
       </c>
       <c r="I414" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K414" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M414" t="s">
         <v>208</v>
@@ -25532,7 +25532,7 @@
         <v>235</v>
       </c>
       <c r="V414" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="415" spans="1:22">
@@ -25540,31 +25540,31 @@
         <v>22</v>
       </c>
       <c r="B415" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C415">
-        <v>17764</v>
+        <v>368000</v>
       </c>
       <c r="E415" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F415" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G415" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H415" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I415" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="K415" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M415" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N415" t="s">
         <v>210</v>
@@ -25576,13 +25576,13 @@
         <v>218</v>
       </c>
       <c r="Q415" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="R415" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S415" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T415" t="s">
         <v>266</v>
@@ -25591,7 +25591,7 @@
         <v>235</v>
       </c>
       <c r="V415" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="416" spans="1:22">
@@ -25599,31 +25599,31 @@
         <v>22</v>
       </c>
       <c r="B416" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C416">
-        <v>2340</v>
+        <v>368000</v>
       </c>
       <c r="E416" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F416" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G416" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H416" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I416" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="K416" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M416" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N416" t="s">
         <v>210</v>
@@ -25635,13 +25635,13 @@
         <v>218</v>
       </c>
       <c r="Q416" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="R416" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S416" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T416" t="s">
         <v>266</v>
@@ -25650,7 +25650,7 @@
         <v>235</v>
       </c>
       <c r="V416" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="417" spans="1:22">
@@ -25658,31 +25658,31 @@
         <v>22</v>
       </c>
       <c r="B417" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C417">
-        <v>0.01</v>
+        <v>4162724</v>
       </c>
       <c r="E417" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F417" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G417" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H417" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I417" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="K417" t="s">
         <v>206</v>
       </c>
       <c r="M417" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N417" t="s">
         <v>210</v>
@@ -25694,13 +25694,13 @@
         <v>218</v>
       </c>
       <c r="Q417" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="R417" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S417" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T417" t="s">
         <v>266</v>
@@ -25709,7 +25709,7 @@
         <v>235</v>
       </c>
       <c r="V417" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="418" spans="1:22">
@@ -25717,31 +25717,31 @@
         <v>22</v>
       </c>
       <c r="B418" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C418">
-        <v>12000</v>
+        <v>1741635</v>
       </c>
       <c r="E418" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F418" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G418" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H418" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I418" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K418" t="s">
         <v>206</v>
       </c>
       <c r="M418" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N418" t="s">
         <v>210</v>
@@ -25753,13 +25753,13 @@
         <v>218</v>
       </c>
       <c r="Q418" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="R418" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="S418" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="T418" t="s">
         <v>266</v>
@@ -25768,18 +25768,18 @@
         <v>235</v>
       </c>
       <c r="V418" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="419" spans="1:22">
       <c r="A419" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B419" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C419">
-        <v>4795</v>
+        <v>17764</v>
       </c>
       <c r="E419" t="s">
         <v>89</v>
@@ -25788,13 +25788,13 @@
         <v>127</v>
       </c>
       <c r="G419" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H419" t="s">
         <v>166</v>
       </c>
       <c r="I419" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="K419" t="s">
         <v>206</v>
@@ -25812,13 +25812,13 @@
         <v>218</v>
       </c>
       <c r="Q419" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="R419" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S419" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T419" t="s">
         <v>266</v>
@@ -25827,18 +25827,18 @@
         <v>235</v>
       </c>
       <c r="V419" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="420" spans="1:22">
       <c r="A420" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B420" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C420">
-        <v>10000</v>
+        <v>2340</v>
       </c>
       <c r="E420" t="s">
         <v>89</v>
@@ -25847,13 +25847,16 @@
         <v>127</v>
       </c>
       <c r="G420" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H420" t="s">
         <v>166</v>
       </c>
       <c r="I420" t="s">
-        <v>182</v>
+        <v>203</v>
+      </c>
+      <c r="K420" t="s">
+        <v>206</v>
       </c>
       <c r="M420" t="s">
         <v>209</v>
@@ -25868,13 +25871,13 @@
         <v>218</v>
       </c>
       <c r="Q420" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="R420" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S420" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="T420" t="s">
         <v>266</v>
@@ -25883,7 +25886,7 @@
         <v>235</v>
       </c>
       <c r="V420" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="421" spans="1:22">
@@ -25891,25 +25894,25 @@
         <v>22</v>
       </c>
       <c r="B421" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C421">
-        <v>27253</v>
+        <v>0.01</v>
       </c>
       <c r="E421" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F421" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G421" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H421" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I421" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="K421" t="s">
         <v>206</v>
@@ -25927,13 +25930,13 @@
         <v>218</v>
       </c>
       <c r="Q421" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="R421" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="S421" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="T421" t="s">
         <v>266</v>
@@ -25942,18 +25945,18 @@
         <v>235</v>
       </c>
       <c r="V421" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="422" spans="1:22">
       <c r="A422" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B422" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C422">
-        <v>22040</v>
+        <v>12000</v>
       </c>
       <c r="E422" t="s">
         <v>89</v>
@@ -25968,7 +25971,7 @@
         <v>166</v>
       </c>
       <c r="I422" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K422" t="s">
         <v>206</v>
@@ -25986,13 +25989,13 @@
         <v>218</v>
       </c>
       <c r="Q422" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R422" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S422" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="T422" t="s">
         <v>266</v>
@@ -26001,33 +26004,33 @@
         <v>235</v>
       </c>
       <c r="V422" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="423" spans="1:22">
       <c r="A423" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B423" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C423">
-        <v>8800</v>
+        <v>4795</v>
       </c>
       <c r="E423" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F423" t="s">
         <v>127</v>
       </c>
       <c r="G423" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H423" t="s">
         <v>166</v>
       </c>
       <c r="I423" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K423" t="s">
         <v>206</v>
@@ -26045,13 +26048,13 @@
         <v>218</v>
       </c>
       <c r="Q423" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R423" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="S423" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="T423" t="s">
         <v>266</v>
@@ -26060,33 +26063,33 @@
         <v>235</v>
       </c>
       <c r="V423" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="424" spans="1:22">
       <c r="A424" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B424" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="C424">
+        <v>10000</v>
       </c>
       <c r="E424" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F424" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G424" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H424" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I424" t="s">
-        <v>172</v>
-      </c>
-      <c r="K424" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="M424" t="s">
         <v>209</v>
@@ -26101,13 +26104,13 @@
         <v>218</v>
       </c>
       <c r="Q424" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="R424" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="S424" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="T424" t="s">
         <v>266</v>
@@ -26116,7 +26119,7 @@
         <v>235</v>
       </c>
       <c r="V424" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="425" spans="1:22">
@@ -26124,25 +26127,25 @@
         <v>22</v>
       </c>
       <c r="B425" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C425">
-        <v>19490</v>
+        <v>27253</v>
       </c>
       <c r="E425" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F425" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G425" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H425" t="s">
         <v>166</v>
       </c>
       <c r="I425" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K425" t="s">
         <v>206</v>
@@ -26160,13 +26163,13 @@
         <v>218</v>
       </c>
       <c r="Q425" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="R425" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S425" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="T425" t="s">
         <v>266</v>
@@ -26175,7 +26178,7 @@
         <v>235</v>
       </c>
       <c r="V425" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="426" spans="1:22">
@@ -26183,10 +26186,10 @@
         <v>24</v>
       </c>
       <c r="B426" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C426">
-        <v>28700</v>
+        <v>22040</v>
       </c>
       <c r="E426" t="s">
         <v>89</v>
@@ -26201,7 +26204,7 @@
         <v>166</v>
       </c>
       <c r="I426" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="K426" t="s">
         <v>206</v>
@@ -26219,13 +26222,13 @@
         <v>218</v>
       </c>
       <c r="Q426" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="R426" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="S426" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="T426" t="s">
         <v>266</v>
@@ -26234,7 +26237,7 @@
         <v>235</v>
       </c>
       <c r="V426" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="427" spans="1:22">
@@ -26242,25 +26245,25 @@
         <v>22</v>
       </c>
       <c r="B427" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C427">
-        <v>29300</v>
+        <v>8800</v>
       </c>
       <c r="E427" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F427" t="s">
         <v>127</v>
       </c>
       <c r="G427" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H427" t="s">
         <v>166</v>
       </c>
       <c r="I427" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K427" t="s">
         <v>206</v>
@@ -26278,13 +26281,13 @@
         <v>218</v>
       </c>
       <c r="Q427" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="R427" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="S427" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="T427" t="s">
         <v>266</v>
@@ -26293,7 +26296,7 @@
         <v>235</v>
       </c>
       <c r="V427" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="428" spans="1:22">
@@ -26301,28 +26304,28 @@
         <v>22</v>
       </c>
       <c r="B428" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E428" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F428" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="G428" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H428" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I428" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="K428" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M428" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N428" t="s">
         <v>210</v>
@@ -26334,19 +26337,19 @@
         <v>218</v>
       </c>
       <c r="Q428" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R428" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="S428" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="T428" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="U428" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="V428" t="s">
         <v>301</v>
@@ -26357,31 +26360,31 @@
         <v>22</v>
       </c>
       <c r="B429" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C429">
-        <v>7515000</v>
+        <v>19490</v>
       </c>
       <c r="E429" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F429" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G429" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H429" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I429" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="K429" t="s">
         <v>206</v>
       </c>
       <c r="M429" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N429" t="s">
         <v>210</v>
@@ -26393,39 +26396,39 @@
         <v>218</v>
       </c>
       <c r="Q429" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="R429" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="S429" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="T429" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="U429" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="V429" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="430" spans="1:22">
       <c r="A430" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B430" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C430">
-        <v>20709</v>
+        <v>28700</v>
       </c>
       <c r="E430" t="s">
         <v>89</v>
       </c>
       <c r="F430" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G430" t="s">
         <v>150</v>
@@ -26434,13 +26437,13 @@
         <v>166</v>
       </c>
       <c r="I430" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K430" t="s">
         <v>206</v>
       </c>
       <c r="M430" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N430" t="s">
         <v>210</v>
@@ -26452,22 +26455,22 @@
         <v>218</v>
       </c>
       <c r="Q430" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="R430" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="S430" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="T430" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="U430" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="V430" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="431" spans="1:22">
@@ -26475,31 +26478,31 @@
         <v>22</v>
       </c>
       <c r="B431" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C431">
-        <v>20709</v>
+        <v>29300</v>
       </c>
       <c r="E431" t="s">
         <v>89</v>
       </c>
       <c r="F431" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G431" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H431" t="s">
         <v>166</v>
       </c>
       <c r="I431" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K431" t="s">
         <v>206</v>
       </c>
       <c r="M431" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N431" t="s">
         <v>210</v>
@@ -26511,22 +26514,22 @@
         <v>218</v>
       </c>
       <c r="Q431" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="R431" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S431" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="T431" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="U431" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="V431" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="432" spans="1:22">
@@ -26534,28 +26537,25 @@
         <v>22</v>
       </c>
       <c r="B432" t="s">
-        <v>59</v>
-      </c>
-      <c r="C432">
-        <v>20709</v>
+        <v>71</v>
       </c>
       <c r="E432" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F432" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G432" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H432" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I432" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="K432" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M432" t="s">
         <v>208</v>
@@ -26570,22 +26570,22 @@
         <v>218</v>
       </c>
       <c r="Q432" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="R432" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="S432" t="s">
         <v>254</v>
       </c>
       <c r="T432" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="U432" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="V432" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="433" spans="1:22">
@@ -26593,25 +26593,25 @@
         <v>22</v>
       </c>
       <c r="B433" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C433">
-        <v>20709</v>
+        <v>7515000</v>
       </c>
       <c r="E433" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F433" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G433" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H433" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I433" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K433" t="s">
         <v>206</v>
@@ -26629,19 +26629,19 @@
         <v>218</v>
       </c>
       <c r="Q433" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="R433" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="S433" t="s">
         <v>254</v>
       </c>
       <c r="T433" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="U433" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="V433" t="s">
         <v>303</v>
@@ -26652,19 +26652,19 @@
         <v>22</v>
       </c>
       <c r="B434" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C434">
-        <v>52600</v>
+        <v>20709</v>
       </c>
       <c r="E434" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F434" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G434" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H434" t="s">
         <v>166</v>
@@ -26703,7 +26703,7 @@
         <v>245</v>
       </c>
       <c r="V434" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="435" spans="1:22">
@@ -26762,7 +26762,7 @@
         <v>245</v>
       </c>
       <c r="V435" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="436" spans="1:22">
@@ -26821,7 +26821,7 @@
         <v>245</v>
       </c>
       <c r="V436" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="437" spans="1:22">
@@ -26829,16 +26829,16 @@
         <v>22</v>
       </c>
       <c r="B437" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C437">
-        <v>27270</v>
+        <v>20709</v>
       </c>
       <c r="E437" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F437" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G437" t="s">
         <v>150</v>
@@ -26880,7 +26880,7 @@
         <v>245</v>
       </c>
       <c r="V437" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="438" spans="1:22">
@@ -26888,19 +26888,19 @@
         <v>22</v>
       </c>
       <c r="B438" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C438">
-        <v>27270</v>
+        <v>52600</v>
       </c>
       <c r="E438" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F438" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G438" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H438" t="s">
         <v>166</v>
@@ -26939,7 +26939,7 @@
         <v>245</v>
       </c>
       <c r="V438" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="439" spans="1:22">
@@ -26998,7 +26998,7 @@
         <v>245</v>
       </c>
       <c r="V439" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="440" spans="1:22">
@@ -27057,7 +27057,7 @@
         <v>245</v>
       </c>
       <c r="V440" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="441" spans="1:22">
@@ -27065,16 +27065,16 @@
         <v>22</v>
       </c>
       <c r="B441" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C441">
-        <v>20709</v>
+        <v>27270</v>
       </c>
       <c r="E441" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F441" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G441" t="s">
         <v>150</v>
@@ -27116,7 +27116,7 @@
         <v>245</v>
       </c>
       <c r="V441" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="442" spans="1:22">
@@ -27124,16 +27124,16 @@
         <v>22</v>
       </c>
       <c r="B442" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C442">
-        <v>20709</v>
+        <v>27270</v>
       </c>
       <c r="E442" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F442" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G442" t="s">
         <v>150</v>
@@ -27175,7 +27175,7 @@
         <v>245</v>
       </c>
       <c r="V442" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="443" spans="1:22">
@@ -27234,7 +27234,7 @@
         <v>245</v>
       </c>
       <c r="V443" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="444" spans="1:22">
@@ -27293,7 +27293,7 @@
         <v>245</v>
       </c>
       <c r="V444" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="445" spans="1:22">
@@ -27301,16 +27301,16 @@
         <v>22</v>
       </c>
       <c r="B445" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C445">
-        <v>27270</v>
+        <v>20709</v>
       </c>
       <c r="E445" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F445" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G445" t="s">
         <v>150</v>
@@ -27352,7 +27352,7 @@
         <v>245</v>
       </c>
       <c r="V445" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="446" spans="1:22">
@@ -27411,7 +27411,7 @@
         <v>245</v>
       </c>
       <c r="V446" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="447" spans="1:22">
@@ -27470,7 +27470,7 @@
         <v>245</v>
       </c>
       <c r="V447" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="448" spans="1:22">
@@ -27529,7 +27529,7 @@
         <v>245</v>
       </c>
       <c r="V448" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="449" spans="1:22">
@@ -27537,16 +27537,16 @@
         <v>22</v>
       </c>
       <c r="B449" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C449">
-        <v>20709</v>
+        <v>27270</v>
       </c>
       <c r="E449" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F449" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G449" t="s">
         <v>150</v>
@@ -27588,7 +27588,7 @@
         <v>245</v>
       </c>
       <c r="V449" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="450" spans="1:22">
@@ -27596,19 +27596,19 @@
         <v>22</v>
       </c>
       <c r="B450" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C450">
-        <v>21155</v>
+        <v>20709</v>
       </c>
       <c r="E450" t="s">
         <v>89</v>
       </c>
       <c r="F450" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G450" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H450" t="s">
         <v>166</v>
@@ -27647,7 +27647,7 @@
         <v>245</v>
       </c>
       <c r="V450" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="451" spans="1:22">
@@ -27706,7 +27706,7 @@
         <v>245</v>
       </c>
       <c r="V451" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="452" spans="1:22">
@@ -27765,7 +27765,7 @@
         <v>245</v>
       </c>
       <c r="V452" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="453" spans="1:22">
@@ -27773,19 +27773,19 @@
         <v>22</v>
       </c>
       <c r="B453" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C453">
-        <v>27540</v>
+        <v>20709</v>
       </c>
       <c r="E453" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F453" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G453" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H453" t="s">
         <v>166</v>
@@ -27824,7 +27824,7 @@
         <v>245</v>
       </c>
       <c r="V453" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="454" spans="1:22">
@@ -27832,19 +27832,19 @@
         <v>22</v>
       </c>
       <c r="B454" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C454">
-        <v>20709</v>
+        <v>21155</v>
       </c>
       <c r="E454" t="s">
         <v>89</v>
       </c>
       <c r="F454" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G454" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H454" t="s">
         <v>166</v>
@@ -27883,7 +27883,7 @@
         <v>245</v>
       </c>
       <c r="V454" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="455" spans="1:22">
@@ -27942,7 +27942,7 @@
         <v>245</v>
       </c>
       <c r="V455" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="456" spans="1:22">
@@ -28001,7 +28001,7 @@
         <v>245</v>
       </c>
       <c r="V456" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="457" spans="1:22">
@@ -28009,19 +28009,19 @@
         <v>22</v>
       </c>
       <c r="B457" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C457">
-        <v>20709</v>
+        <v>27540</v>
       </c>
       <c r="E457" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F457" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G457" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H457" t="s">
         <v>166</v>
@@ -28060,7 +28060,7 @@
         <v>245</v>
       </c>
       <c r="V457" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="458" spans="1:22">
@@ -28119,7 +28119,7 @@
         <v>245</v>
       </c>
       <c r="V458" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="459" spans="1:22">
@@ -28178,7 +28178,7 @@
         <v>245</v>
       </c>
       <c r="V459" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="460" spans="1:22">
@@ -28186,19 +28186,19 @@
         <v>22</v>
       </c>
       <c r="B460" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C460">
-        <v>49075</v>
+        <v>20709</v>
       </c>
       <c r="E460" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F460" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G460" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H460" t="s">
         <v>166</v>
@@ -28237,7 +28237,7 @@
         <v>245</v>
       </c>
       <c r="V460" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="461" spans="1:22">
@@ -28245,16 +28245,16 @@
         <v>22</v>
       </c>
       <c r="B461" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C461">
-        <v>29185</v>
+        <v>20709</v>
       </c>
       <c r="E461" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F461" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G461" t="s">
         <v>150</v>
@@ -28296,7 +28296,7 @@
         <v>245</v>
       </c>
       <c r="V461" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="462" spans="1:22">
@@ -28355,7 +28355,7 @@
         <v>245</v>
       </c>
       <c r="V462" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="463" spans="1:22">
@@ -28414,7 +28414,7 @@
         <v>245</v>
       </c>
       <c r="V463" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="464" spans="1:22">
@@ -28422,25 +28422,25 @@
         <v>22</v>
       </c>
       <c r="B464" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C464">
-        <v>600996.14</v>
+        <v>49075</v>
       </c>
       <c r="E464" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F464" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G464" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H464" t="s">
         <v>166</v>
       </c>
       <c r="I464" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K464" t="s">
         <v>206</v>
@@ -28458,19 +28458,19 @@
         <v>218</v>
       </c>
       <c r="Q464" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="R464" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S464" t="s">
         <v>254</v>
       </c>
       <c r="T464" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="U464" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="V464" t="s">
         <v>304</v>
@@ -28481,25 +28481,25 @@
         <v>22</v>
       </c>
       <c r="B465" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C465">
-        <v>600996.14</v>
+        <v>29185</v>
       </c>
       <c r="E465" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F465" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G465" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H465" t="s">
         <v>166</v>
       </c>
       <c r="I465" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K465" t="s">
         <v>206</v>
@@ -28517,19 +28517,19 @@
         <v>218</v>
       </c>
       <c r="Q465" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="R465" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S465" t="s">
         <v>254</v>
       </c>
       <c r="T465" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="U465" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="V465" t="s">
         <v>304</v>
@@ -28540,25 +28540,25 @@
         <v>22</v>
       </c>
       <c r="B466" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C466">
-        <v>747717.03</v>
+        <v>20709</v>
       </c>
       <c r="E466" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F466" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G466" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H466" t="s">
         <v>166</v>
       </c>
       <c r="I466" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K466" t="s">
         <v>206</v>
@@ -28576,19 +28576,19 @@
         <v>218</v>
       </c>
       <c r="Q466" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="R466" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S466" t="s">
         <v>254</v>
       </c>
       <c r="T466" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="U466" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="V466" t="s">
         <v>304</v>
@@ -28599,25 +28599,25 @@
         <v>22</v>
       </c>
       <c r="B467" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C467">
-        <v>1271200.32</v>
+        <v>20709</v>
       </c>
       <c r="E467" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F467" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G467" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H467" t="s">
         <v>166</v>
       </c>
       <c r="I467" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K467" t="s">
         <v>206</v>
@@ -28635,19 +28635,19 @@
         <v>218</v>
       </c>
       <c r="Q467" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="R467" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S467" t="s">
         <v>254</v>
       </c>
       <c r="T467" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="U467" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="V467" t="s">
         <v>304</v>
@@ -28658,25 +28658,28 @@
         <v>22</v>
       </c>
       <c r="B468" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="C468">
+        <v>600996.14</v>
       </c>
       <c r="E468" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F468" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G468" t="s">
         <v>159</v>
       </c>
       <c r="H468" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I468" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K468" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M468" t="s">
         <v>208</v>
@@ -28685,25 +28688,25 @@
         <v>210</v>
       </c>
       <c r="O468" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P468" t="s">
         <v>218</v>
       </c>
       <c r="Q468" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R468" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S468" t="s">
         <v>254</v>
       </c>
       <c r="T468" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U468" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V468" t="s">
         <v>305</v>
@@ -28744,7 +28747,7 @@
         <v>210</v>
       </c>
       <c r="O469" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P469" t="s">
         <v>218</v>
@@ -28765,7 +28768,7 @@
         <v>251</v>
       </c>
       <c r="V469" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="470" spans="1:22">
@@ -28773,19 +28776,19 @@
         <v>22</v>
       </c>
       <c r="B470" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C470">
-        <v>600996.14</v>
+        <v>747717.03</v>
       </c>
       <c r="E470" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F470" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="G470" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H470" t="s">
         <v>166</v>
@@ -28803,7 +28806,7 @@
         <v>210</v>
       </c>
       <c r="O470" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P470" t="s">
         <v>218</v>
@@ -28824,7 +28827,7 @@
         <v>251</v>
       </c>
       <c r="V470" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="471" spans="1:22">
@@ -28832,19 +28835,19 @@
         <v>22</v>
       </c>
       <c r="B471" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C471">
-        <v>747717.03</v>
+        <v>1271200.32</v>
       </c>
       <c r="E471" t="s">
         <v>103</v>
       </c>
       <c r="F471" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="G471" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H471" t="s">
         <v>166</v>
@@ -28862,7 +28865,7 @@
         <v>210</v>
       </c>
       <c r="O471" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P471" t="s">
         <v>218</v>
@@ -28883,7 +28886,7 @@
         <v>251</v>
       </c>
       <c r="V471" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="472" spans="1:22">
@@ -28891,28 +28894,25 @@
         <v>22</v>
       </c>
       <c r="B472" t="s">
-        <v>76</v>
-      </c>
-      <c r="C472">
-        <v>1271200.32</v>
+        <v>71</v>
       </c>
       <c r="E472" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F472" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G472" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H472" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I472" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K472" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M472" t="s">
         <v>208</v>
@@ -28927,19 +28927,19 @@
         <v>218</v>
       </c>
       <c r="Q472" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R472" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S472" t="s">
         <v>254</v>
       </c>
       <c r="T472" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U472" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="V472" t="s">
         <v>306</v>
@@ -28947,28 +28947,28 @@
     </row>
     <row r="473" spans="1:22">
       <c r="A473" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B473" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C473">
-        <v>975000</v>
+        <v>600996.14</v>
       </c>
       <c r="E473" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F473" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G473" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H473" t="s">
         <v>166</v>
       </c>
       <c r="I473" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K473" t="s">
         <v>206</v>
@@ -28986,19 +28986,19 @@
         <v>218</v>
       </c>
       <c r="Q473" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R473" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S473" t="s">
         <v>254</v>
       </c>
       <c r="T473" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U473" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V473" t="s">
         <v>307</v>
@@ -29009,25 +29009,25 @@
         <v>22</v>
       </c>
       <c r="B474" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C474">
-        <v>2817602.82</v>
+        <v>600996.14</v>
       </c>
       <c r="E474" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F474" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G474" t="s">
         <v>159</v>
       </c>
       <c r="H474" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I474" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K474" t="s">
         <v>206</v>
@@ -29045,22 +29045,22 @@
         <v>218</v>
       </c>
       <c r="Q474" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R474" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S474" t="s">
         <v>254</v>
       </c>
       <c r="T474" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U474" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="V474" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="475" spans="1:22">
@@ -29068,25 +29068,25 @@
         <v>22</v>
       </c>
       <c r="B475" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C475">
-        <v>442580.83</v>
+        <v>747717.03</v>
       </c>
       <c r="E475" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F475" t="s">
         <v>107</v>
       </c>
       <c r="G475" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H475" t="s">
         <v>166</v>
       </c>
       <c r="I475" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="K475" t="s">
         <v>206</v>
@@ -29104,22 +29104,22 @@
         <v>218</v>
       </c>
       <c r="Q475" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="R475" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="S475" t="s">
         <v>254</v>
       </c>
       <c r="T475" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="U475" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="V475" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="476" spans="1:22">
@@ -29127,25 +29127,25 @@
         <v>22</v>
       </c>
       <c r="B476" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C476">
-        <v>747998.13</v>
+        <v>1271200.32</v>
       </c>
       <c r="E476" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F476" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G476" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H476" t="s">
         <v>166</v>
       </c>
       <c r="I476" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="K476" t="s">
         <v>206</v>
@@ -29163,48 +29163,48 @@
         <v>218</v>
       </c>
       <c r="Q476" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="R476" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="S476" t="s">
         <v>254</v>
       </c>
       <c r="T476" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="U476" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="V476" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="477" spans="1:22">
       <c r="A477" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B477" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C477">
-        <v>412819.17</v>
+        <v>975000</v>
       </c>
       <c r="E477" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="F477" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="G477" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="H477" t="s">
         <v>166</v>
       </c>
       <c r="I477" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="K477" t="s">
         <v>206</v>
@@ -29222,22 +29222,22 @@
         <v>218</v>
       </c>
       <c r="Q477" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="R477" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="S477" t="s">
         <v>254</v>
       </c>
       <c r="T477" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="U477" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="V477" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="478" spans="1:22">
@@ -29245,25 +29245,25 @@
         <v>22</v>
       </c>
       <c r="B478" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C478">
-        <v>119616.2</v>
+        <v>2817602.82</v>
       </c>
       <c r="E478" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F478" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="G478" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H478" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I478" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="K478" t="s">
         <v>206</v>
@@ -29281,19 +29281,19 @@
         <v>218</v>
       </c>
       <c r="Q478" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="R478" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="S478" t="s">
         <v>254</v>
       </c>
       <c r="T478" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="U478" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="V478" t="s">
         <v>309</v>
@@ -29304,19 +29304,19 @@
         <v>22</v>
       </c>
       <c r="B479" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C479">
-        <v>91454</v>
+        <v>442580.83</v>
       </c>
       <c r="E479" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F479" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G479" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H479" t="s">
         <v>166</v>
@@ -29355,27 +29355,27 @@
         <v>235</v>
       </c>
       <c r="V479" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="480" spans="1:22">
       <c r="A480" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B480" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C480">
-        <v>34774.58</v>
+        <v>747998.13</v>
       </c>
       <c r="E480" t="s">
         <v>83</v>
       </c>
       <c r="F480" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G480" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H480" t="s">
         <v>166</v>
@@ -29414,7 +29414,7 @@
         <v>235</v>
       </c>
       <c r="V480" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="481" spans="1:22">
@@ -29422,19 +29422,19 @@
         <v>22</v>
       </c>
       <c r="B481" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C481">
-        <v>109121.6</v>
+        <v>412819.17</v>
       </c>
       <c r="E481" t="s">
         <v>82</v>
       </c>
       <c r="F481" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G481" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H481" t="s">
         <v>166</v>
@@ -29473,7 +29473,7 @@
         <v>235</v>
       </c>
       <c r="V481" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="482" spans="1:22">
@@ -29481,19 +29481,19 @@
         <v>22</v>
       </c>
       <c r="B482" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C482">
-        <v>159817</v>
+        <v>119616.2</v>
       </c>
       <c r="E482" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F482" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G482" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H482" t="s">
         <v>166</v>
@@ -29532,7 +29532,7 @@
         <v>235</v>
       </c>
       <c r="V482" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="483" spans="1:22">
@@ -29540,19 +29540,19 @@
         <v>22</v>
       </c>
       <c r="B483" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C483">
-        <v>112434</v>
+        <v>91454</v>
       </c>
       <c r="E483" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F483" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G483" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H483" t="s">
         <v>166</v>
@@ -29591,27 +29591,27 @@
         <v>235</v>
       </c>
       <c r="V483" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="484" spans="1:22">
       <c r="A484" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B484" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C484">
-        <v>85900</v>
+        <v>34774.58</v>
       </c>
       <c r="E484" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F484" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G484" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H484" t="s">
         <v>166</v>
@@ -29650,27 +29650,27 @@
         <v>235</v>
       </c>
       <c r="V484" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="485" spans="1:22">
       <c r="A485" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B485" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C485">
-        <v>74870</v>
+        <v>109121.6</v>
       </c>
       <c r="E485" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F485" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G485" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H485" t="s">
         <v>166</v>
@@ -29709,27 +29709,27 @@
         <v>235</v>
       </c>
       <c r="V485" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="486" spans="1:22">
       <c r="A486" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B486" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C486">
-        <v>92720</v>
+        <v>159817</v>
       </c>
       <c r="E486" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F486" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G486" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H486" t="s">
         <v>166</v>
@@ -29768,7 +29768,7 @@
         <v>235</v>
       </c>
       <c r="V486" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="487" spans="1:22">
@@ -29776,19 +29776,19 @@
         <v>22</v>
       </c>
       <c r="B487" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C487">
-        <v>525000</v>
+        <v>112434</v>
       </c>
       <c r="E487" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F487" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G487" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H487" t="s">
         <v>166</v>
@@ -29827,24 +29827,24 @@
         <v>235</v>
       </c>
       <c r="V487" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="488" spans="1:22">
       <c r="A488" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B488" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C488">
-        <v>209169.05</v>
+        <v>85900</v>
       </c>
       <c r="E488" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F488" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G488" t="s">
         <v>152</v>
@@ -29886,24 +29886,24 @@
         <v>235</v>
       </c>
       <c r="V488" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="489" spans="1:22">
       <c r="A489" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B489" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C489">
-        <v>176750</v>
+        <v>74870</v>
       </c>
       <c r="E489" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F489" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G489" t="s">
         <v>154</v>
@@ -29945,27 +29945,27 @@
         <v>235</v>
       </c>
       <c r="V489" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="490" spans="1:22">
       <c r="A490" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B490" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C490">
-        <v>6973.82</v>
+        <v>92720</v>
       </c>
       <c r="E490" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F490" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G490" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H490" t="s">
         <v>166</v>
@@ -30004,7 +30004,7 @@
         <v>235</v>
       </c>
       <c r="V490" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="491" spans="1:22">
@@ -30012,19 +30012,19 @@
         <v>22</v>
       </c>
       <c r="B491" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C491">
-        <v>6899.29</v>
+        <v>525000</v>
       </c>
       <c r="E491" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F491" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G491" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H491" t="s">
         <v>166</v>
@@ -30063,27 +30063,27 @@
         <v>235</v>
       </c>
       <c r="V491" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="492" spans="1:22">
       <c r="A492" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B492" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C492">
-        <v>7057.36</v>
+        <v>209169.05</v>
       </c>
       <c r="E492" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F492" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G492" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H492" t="s">
         <v>166</v>
@@ -30122,7 +30122,7 @@
         <v>235</v>
       </c>
       <c r="V492" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="493" spans="1:22">
@@ -30130,28 +30130,28 @@
         <v>22</v>
       </c>
       <c r="B493" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C493">
-        <v>445000</v>
+        <v>176750</v>
       </c>
       <c r="E493" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F493" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G493" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H493" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I493" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K493" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M493" t="s">
         <v>208</v>
@@ -30181,7 +30181,7 @@
         <v>235</v>
       </c>
       <c r="V493" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="494" spans="1:22">
@@ -30189,28 +30189,28 @@
         <v>22</v>
       </c>
       <c r="B494" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C494">
-        <v>445000</v>
+        <v>6973.82</v>
       </c>
       <c r="E494" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F494" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G494" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H494" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I494" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K494" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M494" t="s">
         <v>208</v>
@@ -30240,7 +30240,7 @@
         <v>235</v>
       </c>
       <c r="V494" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="495" spans="1:22">
@@ -30248,28 +30248,28 @@
         <v>22</v>
       </c>
       <c r="B495" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C495">
-        <v>368000</v>
+        <v>6899.29</v>
       </c>
       <c r="E495" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F495" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G495" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H495" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I495" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K495" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M495" t="s">
         <v>208</v>
@@ -30299,7 +30299,7 @@
         <v>235</v>
       </c>
       <c r="V495" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="496" spans="1:22">
@@ -30307,28 +30307,28 @@
         <v>22</v>
       </c>
       <c r="B496" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C496">
-        <v>368000</v>
+        <v>7057.36</v>
       </c>
       <c r="E496" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F496" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G496" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H496" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I496" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K496" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M496" t="s">
         <v>208</v>
@@ -30358,7 +30358,7 @@
         <v>235</v>
       </c>
       <c r="V496" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="497" spans="1:22">
@@ -30369,16 +30369,16 @@
         <v>44</v>
       </c>
       <c r="C497">
-        <v>368000</v>
+        <v>445000</v>
       </c>
       <c r="E497" t="s">
         <v>84</v>
       </c>
       <c r="F497" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G497" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H497" t="s">
         <v>167</v>
@@ -30417,7 +30417,7 @@
         <v>235</v>
       </c>
       <c r="V497" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="498" spans="1:22">
@@ -30428,16 +30428,16 @@
         <v>44</v>
       </c>
       <c r="C498">
-        <v>368000</v>
+        <v>445000</v>
       </c>
       <c r="E498" t="s">
         <v>84</v>
       </c>
       <c r="F498" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G498" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H498" t="s">
         <v>167</v>
@@ -30476,7 +30476,7 @@
         <v>235</v>
       </c>
       <c r="V498" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="499" spans="1:22">
@@ -30535,7 +30535,7 @@
         <v>235</v>
       </c>
       <c r="V499" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="500" spans="1:22">
@@ -30543,28 +30543,28 @@
         <v>22</v>
       </c>
       <c r="B500" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C500">
-        <v>4162724</v>
+        <v>368000</v>
       </c>
       <c r="E500" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F500" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G500" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H500" t="s">
         <v>167</v>
       </c>
       <c r="I500" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K500" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M500" t="s">
         <v>208</v>
@@ -30594,7 +30594,7 @@
         <v>235</v>
       </c>
       <c r="V500" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="501" spans="1:22">
@@ -30602,28 +30602,28 @@
         <v>22</v>
       </c>
       <c r="B501" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C501">
-        <v>1741635</v>
+        <v>368000</v>
       </c>
       <c r="E501" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F501" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G501" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H501" t="s">
         <v>167</v>
       </c>
       <c r="I501" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K501" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M501" t="s">
         <v>208</v>
@@ -30653,39 +30653,39 @@
         <v>235</v>
       </c>
       <c r="V501" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="502" spans="1:22">
       <c r="A502" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B502" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C502">
-        <v>4795</v>
+        <v>368000</v>
       </c>
       <c r="E502" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F502" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G502" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H502" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I502" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K502" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M502" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N502" t="s">
         <v>210</v>
@@ -30697,13 +30697,13 @@
         <v>218</v>
       </c>
       <c r="Q502" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R502" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S502" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T502" t="s">
         <v>266</v>
@@ -30712,7 +30712,7 @@
         <v>235</v>
       </c>
       <c r="V502" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="503" spans="1:22">
@@ -30720,28 +30720,31 @@
         <v>22</v>
       </c>
       <c r="B503" t="s">
-        <v>79</v>
+        <v>44</v>
+      </c>
+      <c r="C503">
+        <v>368000</v>
       </c>
       <c r="E503" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F503" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G503" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H503" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I503" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K503" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M503" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N503" t="s">
         <v>210</v>
@@ -30753,13 +30756,13 @@
         <v>218</v>
       </c>
       <c r="Q503" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="R503" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="S503" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="T503" t="s">
         <v>266</v>
@@ -30768,7 +30771,7 @@
         <v>235</v>
       </c>
       <c r="V503" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="504" spans="1:22">
@@ -30776,31 +30779,31 @@
         <v>22</v>
       </c>
       <c r="B504" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C504">
-        <v>8800</v>
+        <v>4162724</v>
       </c>
       <c r="E504" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F504" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G504" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H504" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I504" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="K504" t="s">
         <v>206</v>
       </c>
       <c r="M504" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N504" t="s">
         <v>210</v>
@@ -30812,13 +30815,13 @@
         <v>218</v>
       </c>
       <c r="Q504" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R504" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="S504" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="T504" t="s">
         <v>266</v>
@@ -30827,7 +30830,7 @@
         <v>235</v>
       </c>
       <c r="V504" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="505" spans="1:22">
@@ -30835,31 +30838,31 @@
         <v>22</v>
       </c>
       <c r="B505" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C505">
-        <v>12000</v>
+        <v>1741635</v>
       </c>
       <c r="E505" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F505" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G505" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H505" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I505" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K505" t="s">
         <v>206</v>
       </c>
       <c r="M505" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N505" t="s">
         <v>210</v>
@@ -30871,13 +30874,13 @@
         <v>218</v>
       </c>
       <c r="Q505" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="R505" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="S505" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="T505" t="s">
         <v>266</v>
@@ -30886,18 +30889,18 @@
         <v>235</v>
       </c>
       <c r="V505" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="506" spans="1:22">
       <c r="A506" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B506" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C506">
-        <v>19490</v>
+        <v>4795</v>
       </c>
       <c r="E506" t="s">
         <v>89</v>
@@ -30912,7 +30915,7 @@
         <v>166</v>
       </c>
       <c r="I506" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K506" t="s">
         <v>206</v>
@@ -30930,13 +30933,13 @@
         <v>218</v>
       </c>
       <c r="Q506" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R506" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S506" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T506" t="s">
         <v>266</v>
@@ -30945,7 +30948,7 @@
         <v>235</v>
       </c>
       <c r="V506" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="507" spans="1:22">
@@ -30953,25 +30956,22 @@
         <v>22</v>
       </c>
       <c r="B507" t="s">
-        <v>56</v>
-      </c>
-      <c r="C507">
-        <v>29300</v>
+        <v>79</v>
       </c>
       <c r="E507" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F507" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G507" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H507" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I507" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="K507" t="s">
         <v>206</v>
@@ -30989,13 +30989,13 @@
         <v>218</v>
       </c>
       <c r="Q507" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="R507" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="S507" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T507" t="s">
         <v>266</v>
@@ -31004,21 +31004,21 @@
         <v>235</v>
       </c>
       <c r="V507" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="508" spans="1:22">
       <c r="A508" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B508" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C508">
-        <v>10000</v>
+        <v>8800</v>
       </c>
       <c r="E508" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F508" t="s">
         <v>127</v>
@@ -31030,7 +31030,10 @@
         <v>166</v>
       </c>
       <c r="I508" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+      <c r="K508" t="s">
+        <v>206</v>
       </c>
       <c r="M508" t="s">
         <v>209</v>
@@ -31045,13 +31048,13 @@
         <v>218</v>
       </c>
       <c r="Q508" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="R508" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S508" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T508" t="s">
         <v>266</v>
@@ -31060,7 +31063,7 @@
         <v>235</v>
       </c>
       <c r="V508" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="509" spans="1:22">
@@ -31068,10 +31071,10 @@
         <v>22</v>
       </c>
       <c r="B509" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C509">
-        <v>17764</v>
+        <v>12000</v>
       </c>
       <c r="E509" t="s">
         <v>89</v>
@@ -31086,7 +31089,7 @@
         <v>166</v>
       </c>
       <c r="I509" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="K509" t="s">
         <v>206</v>
@@ -31104,13 +31107,13 @@
         <v>218</v>
       </c>
       <c r="Q509" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="R509" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="S509" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="T509" t="s">
         <v>266</v>
@@ -31119,7 +31122,7 @@
         <v>235</v>
       </c>
       <c r="V509" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="510" spans="1:22">
@@ -31127,10 +31130,10 @@
         <v>22</v>
       </c>
       <c r="B510" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C510">
-        <v>2340</v>
+        <v>19490</v>
       </c>
       <c r="E510" t="s">
         <v>89</v>
@@ -31145,7 +31148,7 @@
         <v>166</v>
       </c>
       <c r="I510" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="K510" t="s">
         <v>206</v>
@@ -31163,13 +31166,13 @@
         <v>218</v>
       </c>
       <c r="Q510" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="R510" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="S510" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="T510" t="s">
         <v>266</v>
@@ -31178,7 +31181,7 @@
         <v>235</v>
       </c>
       <c r="V510" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="511" spans="1:22">
@@ -31186,25 +31189,25 @@
         <v>22</v>
       </c>
       <c r="B511" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C511">
-        <v>27253</v>
+        <v>29300</v>
       </c>
       <c r="E511" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F511" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G511" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H511" t="s">
         <v>166</v>
       </c>
       <c r="I511" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K511" t="s">
         <v>206</v>
@@ -31222,13 +31225,13 @@
         <v>218</v>
       </c>
       <c r="Q511" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="R511" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S511" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T511" t="s">
         <v>266</v>
@@ -31237,7 +31240,7 @@
         <v>235</v>
       </c>
       <c r="V511" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="512" spans="1:22">
@@ -31245,10 +31248,10 @@
         <v>24</v>
       </c>
       <c r="B512" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C512">
-        <v>22040</v>
+        <v>10000</v>
       </c>
       <c r="E512" t="s">
         <v>89</v>
@@ -31263,10 +31266,7 @@
         <v>166</v>
       </c>
       <c r="I512" t="s">
-        <v>189</v>
-      </c>
-      <c r="K512" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="M512" t="s">
         <v>209</v>
@@ -31281,13 +31281,13 @@
         <v>218</v>
       </c>
       <c r="Q512" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="R512" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S512" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="T512" t="s">
         <v>266</v>
@@ -31296,18 +31296,18 @@
         <v>235</v>
       </c>
       <c r="V512" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="513" spans="1:22">
       <c r="A513" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B513" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C513">
-        <v>28700</v>
+        <v>17764</v>
       </c>
       <c r="E513" t="s">
         <v>89</v>
@@ -31322,7 +31322,7 @@
         <v>166</v>
       </c>
       <c r="I513" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="K513" t="s">
         <v>206</v>
@@ -31340,13 +31340,13 @@
         <v>218</v>
       </c>
       <c r="Q513" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="R513" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S513" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T513" t="s">
         <v>266</v>
@@ -31355,7 +31355,7 @@
         <v>235</v>
       </c>
       <c r="V513" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="514" spans="1:22">
@@ -31363,31 +31363,31 @@
         <v>22</v>
       </c>
       <c r="B514" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C514">
-        <v>20709</v>
+        <v>2340</v>
       </c>
       <c r="E514" t="s">
         <v>89</v>
       </c>
       <c r="F514" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G514" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H514" t="s">
         <v>166</v>
       </c>
       <c r="I514" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K514" t="s">
         <v>206</v>
       </c>
       <c r="M514" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N514" t="s">
         <v>210</v>
@@ -31399,19 +31399,19 @@
         <v>218</v>
       </c>
       <c r="Q514" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="R514" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="S514" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T514" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="U514" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="V514" t="s">
         <v>310</v>
@@ -31422,31 +31422,31 @@
         <v>22</v>
       </c>
       <c r="B515" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C515">
-        <v>20709</v>
+        <v>27253</v>
       </c>
       <c r="E515" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F515" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G515" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H515" t="s">
         <v>166</v>
       </c>
       <c r="I515" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K515" t="s">
         <v>206</v>
       </c>
       <c r="M515" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N515" t="s">
         <v>210</v>
@@ -31458,19 +31458,19 @@
         <v>218</v>
       </c>
       <c r="Q515" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R515" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S515" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="T515" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="U515" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="V515" t="s">
         <v>310</v>
@@ -31478,19 +31478,19 @@
     </row>
     <row r="516" spans="1:22">
       <c r="A516" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B516" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C516">
-        <v>20709</v>
+        <v>22040</v>
       </c>
       <c r="E516" t="s">
         <v>89</v>
       </c>
       <c r="F516" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G516" t="s">
         <v>150</v>
@@ -31499,13 +31499,13 @@
         <v>166</v>
       </c>
       <c r="I516" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K516" t="s">
         <v>206</v>
       </c>
       <c r="M516" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N516" t="s">
         <v>210</v>
@@ -31517,19 +31517,19 @@
         <v>218</v>
       </c>
       <c r="Q516" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R516" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S516" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="T516" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="U516" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="V516" t="s">
         <v>310</v>
@@ -31537,19 +31537,19 @@
     </row>
     <row r="517" spans="1:22">
       <c r="A517" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B517" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C517">
-        <v>20709</v>
+        <v>28700</v>
       </c>
       <c r="E517" t="s">
         <v>89</v>
       </c>
       <c r="F517" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G517" t="s">
         <v>150</v>
@@ -31558,13 +31558,13 @@
         <v>166</v>
       </c>
       <c r="I517" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K517" t="s">
         <v>206</v>
       </c>
       <c r="M517" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N517" t="s">
         <v>210</v>
@@ -31576,19 +31576,19 @@
         <v>218</v>
       </c>
       <c r="Q517" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="R517" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="S517" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="T517" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="U517" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="V517" t="s">
         <v>310</v>
@@ -31599,19 +31599,19 @@
         <v>22</v>
       </c>
       <c r="B518" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C518">
-        <v>52600</v>
+        <v>20709</v>
       </c>
       <c r="E518" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F518" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G518" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H518" t="s">
         <v>166</v>
@@ -31650,7 +31650,7 @@
         <v>245</v>
       </c>
       <c r="V518" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="519" spans="1:22">
@@ -31709,7 +31709,7 @@
         <v>245</v>
       </c>
       <c r="V519" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="520" spans="1:22">
@@ -31768,7 +31768,7 @@
         <v>245</v>
       </c>
       <c r="V520" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="521" spans="1:22">
@@ -31776,16 +31776,16 @@
         <v>22</v>
       </c>
       <c r="B521" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C521">
-        <v>27270</v>
+        <v>20709</v>
       </c>
       <c r="E521" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F521" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G521" t="s">
         <v>150</v>
@@ -31827,7 +31827,7 @@
         <v>245</v>
       </c>
       <c r="V521" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="522" spans="1:22">
@@ -31835,19 +31835,19 @@
         <v>22</v>
       </c>
       <c r="B522" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C522">
-        <v>27270</v>
+        <v>52600</v>
       </c>
       <c r="E522" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F522" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G522" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H522" t="s">
         <v>166</v>
@@ -31886,7 +31886,7 @@
         <v>245</v>
       </c>
       <c r="V522" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="523" spans="1:22">
@@ -31945,7 +31945,7 @@
         <v>245</v>
       </c>
       <c r="V523" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="524" spans="1:22">
@@ -32004,7 +32004,7 @@
         <v>245</v>
       </c>
       <c r="V524" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="525" spans="1:22">
@@ -32012,16 +32012,16 @@
         <v>22</v>
       </c>
       <c r="B525" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C525">
-        <v>20709</v>
+        <v>27270</v>
       </c>
       <c r="E525" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F525" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G525" t="s">
         <v>150</v>
@@ -32063,7 +32063,7 @@
         <v>245</v>
       </c>
       <c r="V525" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="526" spans="1:22">
@@ -32071,16 +32071,16 @@
         <v>22</v>
       </c>
       <c r="B526" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C526">
-        <v>20709</v>
+        <v>27270</v>
       </c>
       <c r="E526" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F526" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G526" t="s">
         <v>150</v>
@@ -32122,7 +32122,7 @@
         <v>245</v>
       </c>
       <c r="V526" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="527" spans="1:22">
@@ -32181,7 +32181,7 @@
         <v>245</v>
       </c>
       <c r="V527" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="528" spans="1:22">
@@ -32240,7 +32240,7 @@
         <v>245</v>
       </c>
       <c r="V528" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="529" spans="1:22">
@@ -32248,16 +32248,16 @@
         <v>22</v>
       </c>
       <c r="B529" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C529">
-        <v>27270</v>
+        <v>20709</v>
       </c>
       <c r="E529" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F529" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G529" t="s">
         <v>150</v>
@@ -32299,7 +32299,7 @@
         <v>245</v>
       </c>
       <c r="V529" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="530" spans="1:22">
@@ -32358,7 +32358,7 @@
         <v>245</v>
       </c>
       <c r="V530" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="531" spans="1:22">
@@ -32417,7 +32417,7 @@
         <v>245</v>
       </c>
       <c r="V531" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="532" spans="1:22">
@@ -32476,7 +32476,7 @@
         <v>245</v>
       </c>
       <c r="V532" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="533" spans="1:22">
@@ -32484,16 +32484,16 @@
         <v>22</v>
       </c>
       <c r="B533" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C533">
-        <v>20709</v>
+        <v>27270</v>
       </c>
       <c r="E533" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F533" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G533" t="s">
         <v>150</v>
@@ -32535,7 +32535,7 @@
         <v>245</v>
       </c>
       <c r="V533" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="534" spans="1:22">
@@ -32543,19 +32543,19 @@
         <v>22</v>
       </c>
       <c r="B534" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C534">
-        <v>21155</v>
+        <v>20709</v>
       </c>
       <c r="E534" t="s">
         <v>89</v>
       </c>
       <c r="F534" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G534" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H534" t="s">
         <v>166</v>
@@ -32594,7 +32594,7 @@
         <v>245</v>
       </c>
       <c r="V534" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="535" spans="1:22">
@@ -32653,7 +32653,7 @@
         <v>245</v>
       </c>
       <c r="V535" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="536" spans="1:22">
@@ -32712,7 +32712,7 @@
         <v>245</v>
       </c>
       <c r="V536" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="537" spans="1:22">
@@ -32720,19 +32720,19 @@
         <v>22</v>
       </c>
       <c r="B537" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C537">
-        <v>27540</v>
+        <v>20709</v>
       </c>
       <c r="E537" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F537" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G537" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H537" t="s">
         <v>166</v>
@@ -32771,7 +32771,7 @@
         <v>245</v>
       </c>
       <c r="V537" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="538" spans="1:22">
@@ -32779,19 +32779,19 @@
         <v>22</v>
       </c>
       <c r="B538" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C538">
-        <v>20709</v>
+        <v>21155</v>
       </c>
       <c r="E538" t="s">
         <v>89</v>
       </c>
       <c r="F538" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G538" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H538" t="s">
         <v>166</v>
@@ -32830,7 +32830,7 @@
         <v>245</v>
       </c>
       <c r="V538" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="539" spans="1:22">
@@ -32889,7 +32889,7 @@
         <v>245</v>
       </c>
       <c r="V539" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="540" spans="1:22">
@@ -32948,7 +32948,7 @@
         <v>245</v>
       </c>
       <c r="V540" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="541" spans="1:22">
@@ -32956,19 +32956,19 @@
         <v>22</v>
       </c>
       <c r="B541" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C541">
-        <v>20709</v>
+        <v>27540</v>
       </c>
       <c r="E541" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F541" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G541" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H541" t="s">
         <v>166</v>
@@ -33007,7 +33007,7 @@
         <v>245</v>
       </c>
       <c r="V541" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="542" spans="1:22">
@@ -33066,7 +33066,7 @@
         <v>245</v>
       </c>
       <c r="V542" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="543" spans="1:22">
@@ -33125,7 +33125,7 @@
         <v>245</v>
       </c>
       <c r="V543" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="544" spans="1:22">
@@ -33133,19 +33133,19 @@
         <v>22</v>
       </c>
       <c r="B544" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C544">
-        <v>49075</v>
+        <v>20709</v>
       </c>
       <c r="E544" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F544" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G544" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H544" t="s">
         <v>166</v>
@@ -33184,7 +33184,7 @@
         <v>245</v>
       </c>
       <c r="V544" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="545" spans="1:22">
@@ -33192,16 +33192,16 @@
         <v>22</v>
       </c>
       <c r="B545" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C545">
-        <v>29185</v>
+        <v>20709</v>
       </c>
       <c r="E545" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F545" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G545" t="s">
         <v>150</v>
@@ -33243,7 +33243,7 @@
         <v>245</v>
       </c>
       <c r="V545" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="546" spans="1:22">
@@ -33302,7 +33302,7 @@
         <v>245</v>
       </c>
       <c r="V546" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="547" spans="1:22">
@@ -33361,7 +33361,7 @@
         <v>245</v>
       </c>
       <c r="V547" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="548" spans="1:22">
@@ -33369,25 +33369,25 @@
         <v>22</v>
       </c>
       <c r="B548" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C548">
-        <v>600996.14</v>
+        <v>49075</v>
       </c>
       <c r="E548" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F548" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G548" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H548" t="s">
         <v>166</v>
       </c>
       <c r="I548" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K548" t="s">
         <v>206</v>
@@ -33399,25 +33399,25 @@
         <v>210</v>
       </c>
       <c r="O548" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P548" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="Q548" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="R548" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S548" t="s">
         <v>254</v>
       </c>
       <c r="T548" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="U548" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="V548" t="s">
         <v>311</v>
@@ -33428,25 +33428,25 @@
         <v>22</v>
       </c>
       <c r="B549" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C549">
-        <v>600996.14</v>
+        <v>29185</v>
       </c>
       <c r="E549" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F549" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G549" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H549" t="s">
         <v>166</v>
       </c>
       <c r="I549" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K549" t="s">
         <v>206</v>
@@ -33458,25 +33458,25 @@
         <v>210</v>
       </c>
       <c r="O549" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P549" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="Q549" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="R549" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S549" t="s">
         <v>254</v>
       </c>
       <c r="T549" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="U549" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="V549" t="s">
         <v>311</v>
@@ -33487,25 +33487,25 @@
         <v>22</v>
       </c>
       <c r="B550" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C550">
-        <v>747717.03</v>
+        <v>20709</v>
       </c>
       <c r="E550" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F550" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G550" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H550" t="s">
         <v>166</v>
       </c>
       <c r="I550" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K550" t="s">
         <v>206</v>
@@ -33517,25 +33517,25 @@
         <v>210</v>
       </c>
       <c r="O550" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P550" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="Q550" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="R550" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S550" t="s">
         <v>254</v>
       </c>
       <c r="T550" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="U550" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="V550" t="s">
         <v>311</v>
@@ -33546,25 +33546,25 @@
         <v>22</v>
       </c>
       <c r="B551" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C551">
-        <v>1271200.32</v>
+        <v>20709</v>
       </c>
       <c r="E551" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F551" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G551" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H551" t="s">
         <v>166</v>
       </c>
       <c r="I551" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K551" t="s">
         <v>206</v>
@@ -33576,25 +33576,25 @@
         <v>210</v>
       </c>
       <c r="O551" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P551" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="Q551" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="R551" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S551" t="s">
         <v>254</v>
       </c>
       <c r="T551" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="U551" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="V551" t="s">
         <v>311</v>

--- a/data/excel_tables/3.3_vehicles.xlsx
+++ b/data/excel_tables/3.3_vehicles.xlsx
@@ -895,10 +895,10 @@
     <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
-    <t>b046b2e0-eaa9-11ee-938a-5514903835ea</t>
+    <t>50ae78b0-eaac-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
-    <t>50ae78b0-eaac-11ee-ae0a-87878d7061af</t>
+    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
   </si>
   <si>
     <t>81dd58d0-ecef-11ee-bce9-638f8e04ad34</t>
@@ -964,7 +964,7 @@
     <t>c952a7d0-9495-11ef-b2b8-41c0413be8f6</t>
   </si>
   <si>
-    <t>6cd10940-eb6f-11ee-95c4-e7bfad33aba2</t>
+    <t>b046b2e0-eaa9-11ee-938a-5514903835ea</t>
   </si>
 </sst>
 </file>
@@ -18698,7 +18698,7 @@
         <v>214</v>
       </c>
       <c r="O297" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P297" t="s">
         <v>220</v>
@@ -18757,7 +18757,7 @@
         <v>214</v>
       </c>
       <c r="O298" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P298" t="s">
         <v>220</v>
@@ -18816,10 +18816,10 @@
         <v>214</v>
       </c>
       <c r="O299" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P299" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="Q299" t="s">
         <v>234</v>
@@ -18875,10 +18875,10 @@
         <v>214</v>
       </c>
       <c r="O300" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P300" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="Q300" t="s">
         <v>234</v>
@@ -33824,10 +33824,10 @@
         <v>214</v>
       </c>
       <c r="O555" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P555" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="Q555" t="s">
         <v>234</v>
@@ -33883,10 +33883,10 @@
         <v>214</v>
       </c>
       <c r="O556" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P556" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="Q556" t="s">
         <v>234</v>

--- a/data/excel_tables/3.3_vehicles.xlsx
+++ b/data/excel_tables/3.3_vehicles.xlsx
@@ -979,6 +979,9 @@
     <t>a43aa490-564a-11ef-9f9f-af297e478ff7</t>
   </si>
   <si>
+    <t>b5ea9f40-9dd2-11ef-afd1-e1abe6ffb9d7</t>
+  </si>
+  <si>
     <t>4b5acbf0-92f1-11ef-b2b8-41c0413be8f6</t>
   </si>
   <si>
@@ -989,9 +992,6 @@
   </si>
   <si>
     <t>8bfa2260-9d13-11ef-b2b8-41c0413be8f6</t>
-  </si>
-  <si>
-    <t>b5ea9f40-9dd2-11ef-afd1-e1abe6ffb9d7</t>
   </si>
   <si>
     <t>db663f70-9dd9-11ef-9f9f-af297e478ff7</t>
@@ -33665,28 +33665,28 @@
     </row>
     <row r="552" spans="1:22">
       <c r="A552" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B552" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C552">
-        <v>600996.14</v>
+        <v>975000</v>
       </c>
       <c r="E552" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F552" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G552" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H552" t="s">
         <v>174</v>
       </c>
       <c r="I552" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K552" t="s">
         <v>214</v>
@@ -33704,19 +33704,19 @@
         <v>225</v>
       </c>
       <c r="Q552" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="R552" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="S552" t="s">
         <v>263</v>
       </c>
       <c r="T552" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U552" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="V552" t="s">
         <v>321</v>
@@ -33778,7 +33778,7 @@
         <v>259</v>
       </c>
       <c r="V553" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="554" spans="1:22">
@@ -33786,19 +33786,19 @@
         <v>22</v>
       </c>
       <c r="B554" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C554">
-        <v>747717.03</v>
+        <v>600996.14</v>
       </c>
       <c r="E554" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F554" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="G554" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="H554" t="s">
         <v>174</v>
@@ -33837,7 +33837,7 @@
         <v>259</v>
       </c>
       <c r="V554" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="555" spans="1:22">
@@ -33845,19 +33845,19 @@
         <v>22</v>
       </c>
       <c r="B555" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C555">
-        <v>1271200.32</v>
+        <v>747717.03</v>
       </c>
       <c r="E555" t="s">
         <v>105</v>
       </c>
       <c r="F555" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="G555" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H555" t="s">
         <v>174</v>
@@ -33896,7 +33896,7 @@
         <v>259</v>
       </c>
       <c r="V555" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="556" spans="1:22">
@@ -33904,25 +33904,28 @@
         <v>22</v>
       </c>
       <c r="B556" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="C556">
+        <v>1271200.32</v>
       </c>
       <c r="E556" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F556" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G556" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H556" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I556" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K556" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M556" t="s">
         <v>216</v>
@@ -33937,19 +33940,19 @@
         <v>225</v>
       </c>
       <c r="Q556" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R556" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="S556" t="s">
         <v>263</v>
       </c>
       <c r="T556" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="U556" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="V556" t="s">
         <v>322</v>
@@ -33960,28 +33963,25 @@
         <v>22</v>
       </c>
       <c r="B557" t="s">
-        <v>81</v>
-      </c>
-      <c r="C557">
-        <v>2817602.82</v>
+        <v>82</v>
       </c>
       <c r="E557" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F557" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G557" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H557" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I557" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K557" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M557" t="s">
         <v>216</v>
@@ -33996,19 +33996,19 @@
         <v>225</v>
       </c>
       <c r="Q557" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R557" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S557" t="s">
         <v>263</v>
       </c>
       <c r="T557" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U557" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V557" t="s">
         <v>323</v>
@@ -34019,25 +34019,25 @@
         <v>22</v>
       </c>
       <c r="B558" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C558">
-        <v>442580.83</v>
+        <v>2817602.82</v>
       </c>
       <c r="E558" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F558" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="G558" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="H558" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I558" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="K558" t="s">
         <v>214</v>
@@ -34055,19 +34055,19 @@
         <v>225</v>
       </c>
       <c r="Q558" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="R558" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="S558" t="s">
         <v>263</v>
       </c>
       <c r="T558" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U558" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="V558" t="s">
         <v>324</v>
@@ -34078,19 +34078,19 @@
         <v>22</v>
       </c>
       <c r="B559" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C559">
-        <v>747998.13</v>
+        <v>442580.83</v>
       </c>
       <c r="E559" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F559" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G559" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H559" t="s">
         <v>174</v>
@@ -34129,7 +34129,7 @@
         <v>243</v>
       </c>
       <c r="V559" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="560" spans="1:22">
@@ -34137,19 +34137,19 @@
         <v>22</v>
       </c>
       <c r="B560" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C560">
-        <v>412819.17</v>
+        <v>747998.13</v>
       </c>
       <c r="E560" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F560" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G560" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H560" t="s">
         <v>174</v>
@@ -34188,7 +34188,7 @@
         <v>243</v>
       </c>
       <c r="V560" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="561" spans="1:22">
@@ -34196,19 +34196,19 @@
         <v>22</v>
       </c>
       <c r="B561" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C561">
-        <v>119616.2</v>
+        <v>412819.17</v>
       </c>
       <c r="E561" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F561" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G561" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H561" t="s">
         <v>174</v>
@@ -34247,7 +34247,7 @@
         <v>243</v>
       </c>
       <c r="V561" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="562" spans="1:22">
@@ -34255,10 +34255,10 @@
         <v>22</v>
       </c>
       <c r="B562" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C562">
-        <v>91454</v>
+        <v>119616.2</v>
       </c>
       <c r="E562" t="s">
         <v>85</v>
@@ -34306,27 +34306,27 @@
         <v>243</v>
       </c>
       <c r="V562" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="563" spans="1:22">
       <c r="A563" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B563" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C563">
-        <v>34774.58</v>
+        <v>91454</v>
       </c>
       <c r="E563" t="s">
         <v>85</v>
       </c>
       <c r="F563" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G563" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H563" t="s">
         <v>174</v>
@@ -34365,27 +34365,27 @@
         <v>243</v>
       </c>
       <c r="V563" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="564" spans="1:22">
       <c r="A564" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B564" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C564">
-        <v>109121.6</v>
+        <v>34774.58</v>
       </c>
       <c r="E564" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F564" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G564" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H564" t="s">
         <v>174</v>
@@ -34424,7 +34424,7 @@
         <v>243</v>
       </c>
       <c r="V564" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="565" spans="1:22">
@@ -34432,19 +34432,19 @@
         <v>22</v>
       </c>
       <c r="B565" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C565">
-        <v>159817</v>
+        <v>109121.6</v>
       </c>
       <c r="E565" t="s">
         <v>84</v>
       </c>
       <c r="F565" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G565" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H565" t="s">
         <v>174</v>
@@ -34483,7 +34483,7 @@
         <v>243</v>
       </c>
       <c r="V565" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="566" spans="1:22">
@@ -34491,16 +34491,16 @@
         <v>22</v>
       </c>
       <c r="B566" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C566">
-        <v>112434</v>
+        <v>159817</v>
       </c>
       <c r="E566" t="s">
         <v>84</v>
       </c>
       <c r="F566" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G566" t="s">
         <v>159</v>
@@ -34542,27 +34542,27 @@
         <v>243</v>
       </c>
       <c r="V566" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="567" spans="1:22">
       <c r="A567" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B567" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C567">
-        <v>85900</v>
+        <v>112434</v>
       </c>
       <c r="E567" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F567" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G567" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H567" t="s">
         <v>174</v>
@@ -34601,7 +34601,7 @@
         <v>243</v>
       </c>
       <c r="V567" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="568" spans="1:22">
@@ -34609,19 +34609,19 @@
         <v>24</v>
       </c>
       <c r="B568" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C568">
-        <v>74870</v>
+        <v>85900</v>
       </c>
       <c r="E568" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F568" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G568" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H568" t="s">
         <v>174</v>
@@ -34660,7 +34660,7 @@
         <v>243</v>
       </c>
       <c r="V568" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="569" spans="1:22">
@@ -34668,19 +34668,19 @@
         <v>24</v>
       </c>
       <c r="B569" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C569">
-        <v>92720</v>
+        <v>74870</v>
       </c>
       <c r="E569" t="s">
         <v>87</v>
       </c>
       <c r="F569" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G569" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H569" t="s">
         <v>174</v>
@@ -34719,24 +34719,24 @@
         <v>243</v>
       </c>
       <c r="V569" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="570" spans="1:22">
       <c r="A570" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B570" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C570">
-        <v>525000</v>
+        <v>92720</v>
       </c>
       <c r="E570" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F570" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G570" t="s">
         <v>158</v>
@@ -34778,24 +34778,24 @@
         <v>243</v>
       </c>
       <c r="V570" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="571" spans="1:22">
       <c r="A571" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B571" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C571">
-        <v>209169.05</v>
+        <v>525000</v>
       </c>
       <c r="E571" t="s">
         <v>88</v>
       </c>
       <c r="F571" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G571" t="s">
         <v>158</v>
@@ -34837,27 +34837,27 @@
         <v>243</v>
       </c>
       <c r="V571" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="572" spans="1:22">
       <c r="A572" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B572" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C572">
-        <v>176750</v>
+        <v>209169.05</v>
       </c>
       <c r="E572" t="s">
         <v>88</v>
       </c>
       <c r="F572" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G572" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H572" t="s">
         <v>174</v>
@@ -34896,7 +34896,7 @@
         <v>243</v>
       </c>
       <c r="V572" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="573" spans="1:22">
@@ -34904,19 +34904,19 @@
         <v>22</v>
       </c>
       <c r="B573" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C573">
-        <v>6973.82</v>
+        <v>176750</v>
       </c>
       <c r="E573" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F573" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G573" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H573" t="s">
         <v>174</v>
@@ -34955,7 +34955,7 @@
         <v>243</v>
       </c>
       <c r="V573" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="574" spans="1:22">
@@ -34963,10 +34963,10 @@
         <v>22</v>
       </c>
       <c r="B574" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C574">
-        <v>6899.29</v>
+        <v>6973.82</v>
       </c>
       <c r="E574" t="s">
         <v>89</v>
@@ -35014,7 +35014,7 @@
         <v>243</v>
       </c>
       <c r="V574" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="575" spans="1:22">
@@ -35022,10 +35022,10 @@
         <v>22</v>
       </c>
       <c r="B575" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C575">
-        <v>7057.36</v>
+        <v>6899.29</v>
       </c>
       <c r="E575" t="s">
         <v>89</v>
@@ -35073,7 +35073,7 @@
         <v>243</v>
       </c>
       <c r="V575" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="576" spans="1:22">
@@ -35081,28 +35081,28 @@
         <v>22</v>
       </c>
       <c r="B576" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C576">
-        <v>445000</v>
+        <v>7057.36</v>
       </c>
       <c r="E576" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F576" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G576" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H576" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I576" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K576" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M576" t="s">
         <v>216</v>
@@ -35132,7 +35132,7 @@
         <v>243</v>
       </c>
       <c r="V576" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="577" spans="1:22">
@@ -35191,7 +35191,7 @@
         <v>243</v>
       </c>
       <c r="V577" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="578" spans="1:22">
@@ -35202,16 +35202,16 @@
         <v>44</v>
       </c>
       <c r="C578">
-        <v>368000</v>
+        <v>445000</v>
       </c>
       <c r="E578" t="s">
         <v>86</v>
       </c>
       <c r="F578" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G578" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H578" t="s">
         <v>175</v>
@@ -35250,7 +35250,7 @@
         <v>243</v>
       </c>
       <c r="V578" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="579" spans="1:22">
@@ -35309,7 +35309,7 @@
         <v>243</v>
       </c>
       <c r="V579" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="580" spans="1:22">
@@ -35368,7 +35368,7 @@
         <v>243</v>
       </c>
       <c r="V580" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="581" spans="1:22">
@@ -35427,7 +35427,7 @@
         <v>243</v>
       </c>
       <c r="V581" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="582" spans="1:22">
@@ -35486,7 +35486,7 @@
         <v>243</v>
       </c>
       <c r="V582" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="583" spans="1:22">
@@ -35494,28 +35494,28 @@
         <v>22</v>
       </c>
       <c r="B583" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C583">
-        <v>4162724</v>
+        <v>368000</v>
       </c>
       <c r="E583" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F583" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G583" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H583" t="s">
         <v>175</v>
       </c>
       <c r="I583" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K583" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M583" t="s">
         <v>216</v>
@@ -35545,7 +35545,7 @@
         <v>243</v>
       </c>
       <c r="V583" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="584" spans="1:22">
@@ -35553,19 +35553,19 @@
         <v>22</v>
       </c>
       <c r="B584" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C584">
-        <v>1741635</v>
+        <v>4162724</v>
       </c>
       <c r="E584" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F584" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G584" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H584" t="s">
         <v>175</v>
@@ -35604,7 +35604,7 @@
         <v>243</v>
       </c>
       <c r="V584" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="585" spans="1:22">
@@ -35612,31 +35612,31 @@
         <v>22</v>
       </c>
       <c r="B585" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C585">
-        <v>12000</v>
+        <v>1741635</v>
       </c>
       <c r="E585" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F585" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G585" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H585" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I585" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K585" t="s">
         <v>214</v>
       </c>
       <c r="M585" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N585" t="s">
         <v>218</v>
@@ -35648,13 +35648,13 @@
         <v>225</v>
       </c>
       <c r="Q585" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="R585" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="S585" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="T585" t="s">
         <v>275</v>
@@ -35663,7 +35663,7 @@
         <v>243</v>
       </c>
       <c r="V585" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="586" spans="1:22">
@@ -35671,22 +35671,25 @@
         <v>22</v>
       </c>
       <c r="B586" t="s">
-        <v>79</v>
+        <v>54</v>
+      </c>
+      <c r="C586">
+        <v>12000</v>
       </c>
       <c r="E586" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F586" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G586" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H586" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I586" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K586" t="s">
         <v>214</v>
@@ -35704,13 +35707,13 @@
         <v>225</v>
       </c>
       <c r="Q586" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="R586" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="S586" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="T586" t="s">
         <v>275</v>
@@ -35719,7 +35722,7 @@
         <v>243</v>
       </c>
       <c r="V586" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="587" spans="1:22">
@@ -35727,25 +35730,22 @@
         <v>22</v>
       </c>
       <c r="B587" t="s">
-        <v>48</v>
-      </c>
-      <c r="C587">
-        <v>17764</v>
+        <v>79</v>
       </c>
       <c r="E587" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F587" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G587" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H587" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I587" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="K587" t="s">
         <v>214</v>
@@ -35763,13 +35763,13 @@
         <v>225</v>
       </c>
       <c r="Q587" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="R587" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="S587" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="T587" t="s">
         <v>275</v>
@@ -35778,7 +35778,7 @@
         <v>243</v>
       </c>
       <c r="V587" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="588" spans="1:22">
@@ -35786,10 +35786,10 @@
         <v>22</v>
       </c>
       <c r="B588" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C588">
-        <v>2340</v>
+        <v>17764</v>
       </c>
       <c r="E588" t="s">
         <v>91</v>
@@ -35798,7 +35798,7 @@
         <v>131</v>
       </c>
       <c r="G588" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H588" t="s">
         <v>174</v>
@@ -35837,7 +35837,7 @@
         <v>243</v>
       </c>
       <c r="V588" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="589" spans="1:22">
@@ -35845,25 +35845,25 @@
         <v>22</v>
       </c>
       <c r="B589" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C589">
-        <v>8800</v>
+        <v>2340</v>
       </c>
       <c r="E589" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F589" t="s">
         <v>131</v>
       </c>
       <c r="G589" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H589" t="s">
         <v>174</v>
       </c>
       <c r="I589" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="K589" t="s">
         <v>214</v>
@@ -35881,13 +35881,13 @@
         <v>225</v>
       </c>
       <c r="Q589" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="R589" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="S589" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="T589" t="s">
         <v>275</v>
@@ -35896,7 +35896,7 @@
         <v>243</v>
       </c>
       <c r="V589" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="590" spans="1:22">
@@ -35904,25 +35904,25 @@
         <v>22</v>
       </c>
       <c r="B590" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C590">
-        <v>27253</v>
+        <v>8800</v>
       </c>
       <c r="E590" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F590" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G590" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H590" t="s">
         <v>174</v>
       </c>
       <c r="I590" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K590" t="s">
         <v>214</v>
@@ -35940,13 +35940,13 @@
         <v>225</v>
       </c>
       <c r="Q590" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R590" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="S590" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="T590" t="s">
         <v>275</v>
@@ -35955,27 +35955,27 @@
         <v>243</v>
       </c>
       <c r="V590" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="591" spans="1:22">
       <c r="A591" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B591" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C591">
-        <v>22040</v>
+        <v>27253</v>
       </c>
       <c r="E591" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F591" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G591" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H591" t="s">
         <v>174</v>
@@ -36014,18 +36014,18 @@
         <v>243</v>
       </c>
       <c r="V591" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="592" spans="1:22">
       <c r="A592" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B592" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C592">
-        <v>19490</v>
+        <v>22040</v>
       </c>
       <c r="E592" t="s">
         <v>91</v>
@@ -36034,13 +36034,13 @@
         <v>131</v>
       </c>
       <c r="G592" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H592" t="s">
         <v>174</v>
       </c>
       <c r="I592" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="K592" t="s">
         <v>214</v>
@@ -36058,13 +36058,13 @@
         <v>225</v>
       </c>
       <c r="Q592" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="R592" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="S592" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="T592" t="s">
         <v>275</v>
@@ -36073,7 +36073,7 @@
         <v>243</v>
       </c>
       <c r="V592" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="593" spans="1:22">
@@ -36081,10 +36081,10 @@
         <v>22</v>
       </c>
       <c r="B593" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C593">
-        <v>29300</v>
+        <v>19490</v>
       </c>
       <c r="E593" t="s">
         <v>91</v>
@@ -36099,7 +36099,7 @@
         <v>174</v>
       </c>
       <c r="I593" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K593" t="s">
         <v>214</v>
@@ -36117,13 +36117,13 @@
         <v>225</v>
       </c>
       <c r="Q593" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="R593" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="S593" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="T593" t="s">
         <v>275</v>
@@ -36132,18 +36132,18 @@
         <v>243</v>
       </c>
       <c r="V593" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="594" spans="1:22">
       <c r="A594" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B594" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C594">
-        <v>10000</v>
+        <v>29300</v>
       </c>
       <c r="E594" t="s">
         <v>91</v>
@@ -36152,13 +36152,16 @@
         <v>131</v>
       </c>
       <c r="G594" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H594" t="s">
         <v>174</v>
       </c>
       <c r="I594" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="K594" t="s">
+        <v>214</v>
       </c>
       <c r="M594" t="s">
         <v>217</v>
@@ -36173,13 +36176,13 @@
         <v>225</v>
       </c>
       <c r="Q594" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R594" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S594" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T594" t="s">
         <v>275</v>
@@ -36188,7 +36191,7 @@
         <v>243</v>
       </c>
       <c r="V594" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="595" spans="1:22">
@@ -36196,10 +36199,10 @@
         <v>24</v>
       </c>
       <c r="B595" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C595">
-        <v>4795</v>
+        <v>10000</v>
       </c>
       <c r="E595" t="s">
         <v>91</v>
@@ -36208,16 +36211,13 @@
         <v>131</v>
       </c>
       <c r="G595" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H595" t="s">
         <v>174</v>
       </c>
       <c r="I595" t="s">
-        <v>186</v>
-      </c>
-      <c r="K595" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="M595" t="s">
         <v>217</v>
@@ -36232,13 +36232,13 @@
         <v>225</v>
       </c>
       <c r="Q595" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="R595" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="S595" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="T595" t="s">
         <v>275</v>
@@ -36247,7 +36247,7 @@
         <v>243</v>
       </c>
       <c r="V595" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="596" spans="1:22">
@@ -36255,10 +36255,10 @@
         <v>24</v>
       </c>
       <c r="B596" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C596">
-        <v>28700</v>
+        <v>4795</v>
       </c>
       <c r="E596" t="s">
         <v>91</v>
@@ -36267,13 +36267,13 @@
         <v>131</v>
       </c>
       <c r="G596" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H596" t="s">
         <v>174</v>
       </c>
       <c r="I596" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K596" t="s">
         <v>214</v>
@@ -36291,13 +36291,13 @@
         <v>225</v>
       </c>
       <c r="Q596" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R596" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="S596" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T596" t="s">
         <v>275</v>
@@ -36306,39 +36306,39 @@
         <v>243</v>
       </c>
       <c r="V596" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="597" spans="1:22">
       <c r="A597" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B597" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C597">
-        <v>975000</v>
+        <v>28700</v>
       </c>
       <c r="E597" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F597" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="G597" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="H597" t="s">
         <v>174</v>
       </c>
       <c r="I597" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="K597" t="s">
         <v>214</v>
       </c>
       <c r="M597" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N597" t="s">
         <v>218</v>
@@ -36350,19 +36350,19 @@
         <v>225</v>
       </c>
       <c r="Q597" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="R597" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="S597" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="T597" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="U597" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="V597" t="s">
         <v>325</v>
